--- a/data/topic_data/run_compare_352_361.xlsx
+++ b/data/topic_data/run_compare_352_361.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\Google Drive\Work\Publications\_Submitted\1.5 degree cities\cities-1-5\data\topic_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -325,8 +330,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,15 +348,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -374,13 +385,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -389,6 +455,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,9 +541,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,14 +752,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1039,30 +1148,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1">
-        <v>78.86077298465921</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>78.860772984659206</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1">
-        <v>78.9738346652999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>78.973834665299904</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1">
-        <v>79.7355821582274</v>
+      <c r="H3" s="2">
+        <v>79.735582158227402</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -1071,7 +1180,7 @@
         <v>58</v>
       </c>
       <c r="K3" s="1">
-        <v>23.2709735110306</v>
+        <v>23.270973511030601</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1098,7 +1207,7 @@
         <v>30</v>
       </c>
       <c r="AF3">
-        <v>78.86077298465921</v>
+        <v>78.860772984659206</v>
       </c>
       <c r="AG3">
         <v>10</v>
@@ -1107,7 +1216,7 @@
         <v>30</v>
       </c>
       <c r="AI3">
-        <v>78.9738346652999</v>
+        <v>78.973834665299904</v>
       </c>
       <c r="AJ3">
         <v>10</v>
@@ -1116,7 +1225,7 @@
         <v>30</v>
       </c>
       <c r="AL3">
-        <v>79.7355821582274</v>
+        <v>79.735582158227402</v>
       </c>
       <c r="AM3">
         <v>2</v>
@@ -1125,26 +1234,26 @@
         <v>58</v>
       </c>
       <c r="AO3">
-        <v>23.2709735110306</v>
+        <v>23.270973511030601</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="1">
-        <v>61.6150091809712</v>
+      <c r="K4" s="2">
+        <v>61.615009180971199</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -1177,7 +1286,7 @@
         <v>30</v>
       </c>
       <c r="AF4">
-        <v>78.86077298465921</v>
+        <v>78.860772984659206</v>
       </c>
       <c r="AG4">
         <v>10</v>
@@ -1186,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="AI4">
-        <v>78.9738346652999</v>
+        <v>78.973834665299904</v>
       </c>
       <c r="AJ4">
         <v>10</v>
@@ -1195,7 +1304,7 @@
         <v>30</v>
       </c>
       <c r="AL4">
-        <v>79.7355821582274</v>
+        <v>79.735582158227402</v>
       </c>
       <c r="AM4">
         <v>7</v>
@@ -1204,7 +1313,7 @@
         <v>59</v>
       </c>
       <c r="AO4">
-        <v>61.6150091809712</v>
+        <v>61.615009180971199</v>
       </c>
       <c r="AP4">
         <v>4</v>
@@ -1216,26 +1325,26 @@
         <v>16.9399660680916</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <v>5</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1">
-        <v>87.2633331223321</v>
+      <c r="N5" s="2">
+        <v>87.263333122332099</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
@@ -1244,7 +1353,7 @@
         <v>58</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.6065189713279</v>
+        <v>23.606518971327901</v>
       </c>
       <c r="R5" s="1">
         <v>9</v>
@@ -1253,16 +1362,16 @@
         <v>58</v>
       </c>
       <c r="T5" s="1">
-        <v>23.3998424172483</v>
+        <v>23.399842417248301</v>
       </c>
       <c r="U5" s="1">
         <v>9</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="W5" s="1">
-        <v>23.4378852115395</v>
+        <v>23.437885211539498</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1277,7 +1386,7 @@
         <v>30</v>
       </c>
       <c r="AF5">
-        <v>78.86077298465921</v>
+        <v>78.860772984659206</v>
       </c>
       <c r="AG5">
         <v>10</v>
@@ -1286,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="AI5">
-        <v>78.9738346652999</v>
+        <v>78.973834665299904</v>
       </c>
       <c r="AJ5">
         <v>10</v>
@@ -1295,7 +1404,7 @@
         <v>30</v>
       </c>
       <c r="AL5">
-        <v>79.7355821582274</v>
+        <v>79.735582158227402</v>
       </c>
       <c r="AM5">
         <v>7</v>
@@ -1304,7 +1413,7 @@
         <v>59</v>
       </c>
       <c r="AO5">
-        <v>61.6150091809712</v>
+        <v>61.615009180971199</v>
       </c>
       <c r="AP5">
         <v>5</v>
@@ -1313,7 +1422,7 @@
         <v>68</v>
       </c>
       <c r="AR5">
-        <v>87.2633331223321</v>
+        <v>87.263333122332099</v>
       </c>
       <c r="AS5">
         <v>2</v>
@@ -1322,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="AU5">
-        <v>23.6065189713279</v>
+        <v>23.606518971327901</v>
       </c>
       <c r="AV5">
         <v>9</v>
@@ -1331,7 +1440,7 @@
         <v>58</v>
       </c>
       <c r="AX5">
-        <v>23.3998424172483</v>
+        <v>23.399842417248301</v>
       </c>
       <c r="AY5">
         <v>9</v>
@@ -1340,24 +1449,24 @@
         <v>58</v>
       </c>
       <c r="BA5">
-        <v>23.4378852115395</v>
+        <v>23.437885211539498</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>8</v>
       </c>
@@ -1365,7 +1474,7 @@
         <v>75</v>
       </c>
       <c r="Q6" s="1">
-        <v>86.4660138858597</v>
+        <v>86.466013885859695</v>
       </c>
       <c r="R6" s="1">
         <v>9</v>
@@ -1374,7 +1483,7 @@
         <v>59</v>
       </c>
       <c r="T6" s="1">
-        <v>76.8183825707352</v>
+        <v>76.818382570735196</v>
       </c>
       <c r="U6" s="1">
         <v>9</v>
@@ -1383,7 +1492,7 @@
         <v>75</v>
       </c>
       <c r="W6" s="1">
-        <v>84.8685786719338</v>
+        <v>84.868578671933804</v>
       </c>
       <c r="X6" s="1">
         <v>7</v>
@@ -1392,7 +1501,7 @@
         <v>59</v>
       </c>
       <c r="Z6" s="1">
-        <v>65.281722863639</v>
+        <v>65.281722863639004</v>
       </c>
       <c r="AA6" s="1">
         <v>9</v>
@@ -1401,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="AC6" s="1">
-        <v>73.78331906400661</v>
+        <v>73.783319064006605</v>
       </c>
       <c r="AD6" s="1">
         <v>25</v>
@@ -1410,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="AF6">
-        <v>78.86077298465921</v>
+        <v>78.860772984659206</v>
       </c>
       <c r="AG6">
         <v>10</v>
@@ -1419,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="AI6">
-        <v>78.9738346652999</v>
+        <v>78.973834665299904</v>
       </c>
       <c r="AJ6">
         <v>10</v>
@@ -1428,7 +1537,7 @@
         <v>30</v>
       </c>
       <c r="AL6">
-        <v>79.7355821582274</v>
+        <v>79.735582158227402</v>
       </c>
       <c r="AM6">
         <v>7</v>
@@ -1437,7 +1546,7 @@
         <v>59</v>
       </c>
       <c r="AO6">
-        <v>61.6150091809712</v>
+        <v>61.615009180971199</v>
       </c>
       <c r="AP6">
         <v>5</v>
@@ -1446,7 +1555,7 @@
         <v>68</v>
       </c>
       <c r="AR6">
-        <v>87.2633331223321</v>
+        <v>87.263333122332099</v>
       </c>
       <c r="AS6">
         <v>8</v>
@@ -1455,7 +1564,7 @@
         <v>75</v>
       </c>
       <c r="AU6">
-        <v>86.4660138858597</v>
+        <v>86.466013885859695</v>
       </c>
       <c r="AV6">
         <v>9</v>
@@ -1464,7 +1573,7 @@
         <v>59</v>
       </c>
       <c r="AX6">
-        <v>76.8183825707352</v>
+        <v>76.818382570735196</v>
       </c>
       <c r="AY6">
         <v>9</v>
@@ -1473,7 +1582,7 @@
         <v>75</v>
       </c>
       <c r="BA6">
-        <v>84.8685786719338</v>
+        <v>84.868578671933804</v>
       </c>
       <c r="BB6">
         <v>7</v>
@@ -1482,7 +1591,7 @@
         <v>59</v>
       </c>
       <c r="BD6">
-        <v>65.281722863639</v>
+        <v>65.281722863639004</v>
       </c>
       <c r="BE6">
         <v>9</v>
@@ -1491,51 +1600,51 @@
         <v>30</v>
       </c>
       <c r="BG6">
-        <v>73.78331906400661</v>
+        <v>73.783319064006605</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1">
-        <v>50.5717714362281</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>50.571771436228097</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>50.4534366128957</v>
       </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1">
-        <v>47.2480996238321</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="2">
+        <v>47.248099623832097</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="1">
-        <v>49.2997439001329</v>
-      </c>
-      <c r="L7" s="1">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="2">
+        <v>49.299743900132903</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1">
-        <v>47.8219399275317</v>
+      <c r="N7" s="2">
+        <v>47.821939927531702</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -1544,7 +1653,7 @@
         <v>76</v>
       </c>
       <c r="Q7" s="1">
-        <v>39.020270034176</v>
+        <v>39.020270034176001</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1565,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="AF7">
-        <v>50.5717714362281</v>
+        <v>50.571771436228097</v>
       </c>
       <c r="AG7">
         <v>10</v>
@@ -1583,7 +1692,7 @@
         <v>34</v>
       </c>
       <c r="AL7">
-        <v>47.2480996238321</v>
+        <v>47.248099623832097</v>
       </c>
       <c r="AM7">
         <v>10</v>
@@ -1592,7 +1701,7 @@
         <v>34</v>
       </c>
       <c r="AO7">
-        <v>49.2997439001329</v>
+        <v>49.299743900132903</v>
       </c>
       <c r="AP7">
         <v>10</v>
@@ -1601,7 +1710,7 @@
         <v>34</v>
       </c>
       <c r="AR7">
-        <v>47.8219399275317</v>
+        <v>47.821939927531702</v>
       </c>
       <c r="AS7">
         <v>6</v>
@@ -1610,41 +1719,41 @@
         <v>76</v>
       </c>
       <c r="AU7">
-        <v>39.020270034176</v>
+        <v>39.020270034176001</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
         <v>7</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>42.0456915537032</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <v>7</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="1">
-        <v>47.3466313121322</v>
+      <c r="T8" s="2">
+        <v>47.346631312132203</v>
       </c>
       <c r="U8" s="1">
         <v>6</v>
@@ -1653,7 +1762,7 @@
         <v>84</v>
       </c>
       <c r="W8" s="1">
-        <v>38.2019131049399</v>
+        <v>38.201913104939898</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -1668,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="AF8">
-        <v>50.5717714362281</v>
+        <v>50.571771436228097</v>
       </c>
       <c r="AG8">
         <v>10</v>
@@ -1686,7 +1795,7 @@
         <v>34</v>
       </c>
       <c r="AL8">
-        <v>47.2480996238321</v>
+        <v>47.248099623832097</v>
       </c>
       <c r="AM8">
         <v>10</v>
@@ -1695,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="AO8">
-        <v>49.2997439001329</v>
+        <v>49.299743900132903</v>
       </c>
       <c r="AP8">
         <v>10</v>
@@ -1704,7 +1813,7 @@
         <v>34</v>
       </c>
       <c r="AR8">
-        <v>47.8219399275317</v>
+        <v>47.821939927531702</v>
       </c>
       <c r="AS8">
         <v>7</v>
@@ -1722,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="AX8">
-        <v>47.3466313121322</v>
+        <v>47.346631312132203</v>
       </c>
       <c r="AY8">
         <v>6</v>
@@ -1731,47 +1840,47 @@
         <v>84</v>
       </c>
       <c r="BA8">
-        <v>38.2019131049399</v>
+        <v>38.201913104939898</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2">
         <v>7</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="1">
-        <v>42.1660054948221</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="W9" s="2">
+        <v>42.166005494822102</v>
+      </c>
+      <c r="X9" s="2">
         <v>7</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="1">
-        <v>48.2885250015481</v>
+      <c r="Z9" s="2">
+        <v>48.288525001548102</v>
       </c>
       <c r="AA9" s="1">
         <v>6</v>
@@ -1789,7 +1898,7 @@
         <v>34</v>
       </c>
       <c r="AF9">
-        <v>50.5717714362281</v>
+        <v>50.571771436228097</v>
       </c>
       <c r="AG9">
         <v>10</v>
@@ -1807,7 +1916,7 @@
         <v>34</v>
       </c>
       <c r="AL9">
-        <v>47.2480996238321</v>
+        <v>47.248099623832097</v>
       </c>
       <c r="AM9">
         <v>10</v>
@@ -1816,7 +1925,7 @@
         <v>34</v>
       </c>
       <c r="AO9">
-        <v>49.2997439001329</v>
+        <v>49.299743900132903</v>
       </c>
       <c r="AP9">
         <v>10</v>
@@ -1825,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="AR9">
-        <v>47.8219399275317</v>
+        <v>47.821939927531702</v>
       </c>
       <c r="AS9">
         <v>7</v>
@@ -1843,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="AX9">
-        <v>47.3466313121322</v>
+        <v>47.346631312132203</v>
       </c>
       <c r="AY9">
         <v>7</v>
@@ -1852,7 +1961,7 @@
         <v>77</v>
       </c>
       <c r="BA9">
-        <v>42.1660054948221</v>
+        <v>42.166005494822102</v>
       </c>
       <c r="BB9">
         <v>7</v>
@@ -1861,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="BD9">
-        <v>48.2885250015481</v>
+        <v>48.288525001548102</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -1873,33 +1982,33 @@
         <v>38.6856889650022</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
       <c r="AA10" s="1">
         <v>7</v>
       </c>
@@ -1907,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="AC10" s="1">
-        <v>41.0676068927948</v>
+        <v>41.067606892794799</v>
       </c>
       <c r="AD10" s="1">
         <v>40</v>
@@ -1916,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="AF10">
-        <v>50.5717714362281</v>
+        <v>50.571771436228097</v>
       </c>
       <c r="AG10">
         <v>10</v>
@@ -1934,7 +2043,7 @@
         <v>34</v>
       </c>
       <c r="AL10">
-        <v>47.2480996238321</v>
+        <v>47.248099623832097</v>
       </c>
       <c r="AM10">
         <v>10</v>
@@ -1943,7 +2052,7 @@
         <v>34</v>
       </c>
       <c r="AO10">
-        <v>49.2997439001329</v>
+        <v>49.299743900132903</v>
       </c>
       <c r="AP10">
         <v>10</v>
@@ -1952,7 +2061,7 @@
         <v>34</v>
       </c>
       <c r="AR10">
-        <v>47.8219399275317</v>
+        <v>47.821939927531702</v>
       </c>
       <c r="AS10">
         <v>7</v>
@@ -1970,7 +2079,7 @@
         <v>34</v>
       </c>
       <c r="AX10">
-        <v>47.3466313121322</v>
+        <v>47.346631312132203</v>
       </c>
       <c r="AY10">
         <v>7</v>
@@ -1979,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="BA10">
-        <v>42.1660054948221</v>
+        <v>42.166005494822102</v>
       </c>
       <c r="BB10">
         <v>7</v>
@@ -1988,7 +2097,7 @@
         <v>34</v>
       </c>
       <c r="BD10">
-        <v>48.2885250015481</v>
+        <v>48.288525001548102</v>
       </c>
       <c r="BE10">
         <v>7</v>
@@ -1997,80 +2106,80 @@
         <v>77</v>
       </c>
       <c r="BG10">
-        <v>41.0676068927948</v>
+        <v>41.067606892794799</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1">
-        <v>68.1846049912585</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>68.184604991258496</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1">
-        <v>67.8035334971995</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="2">
+        <v>67.803533497199496</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="1">
-        <v>68.67284944769899</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="H11" s="2">
+        <v>68.672849447698994</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="1">
-        <v>66.5558808323802</v>
-      </c>
-      <c r="L11" s="1">
-        <v>9</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="K11" s="2">
+        <v>66.555880832380197</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1">
-        <v>68.9503769749536</v>
-      </c>
-      <c r="O11" s="1">
-        <v>9</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="N11" s="2">
+        <v>68.950376974953599</v>
+      </c>
+      <c r="O11" s="2">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="1">
-        <v>65.3161988259731</v>
-      </c>
-      <c r="R11" s="1">
-        <v>9</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="Q11" s="2">
+        <v>65.316198825973103</v>
+      </c>
+      <c r="R11" s="2">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="1">
-        <v>68.3911214100486</v>
-      </c>
-      <c r="U11" s="1">
-        <v>9</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="T11" s="2">
+        <v>68.391121410048598</v>
+      </c>
+      <c r="U11" s="2">
+        <v>9</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="1">
-        <v>65.9229469913387</v>
-      </c>
-      <c r="X11" s="1">
+      <c r="W11" s="2">
+        <v>65.922946991338705</v>
+      </c>
+      <c r="X11" s="2">
         <v>2</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -2095,7 +2204,7 @@
         <v>37</v>
       </c>
       <c r="AF11">
-        <v>68.1846049912585</v>
+        <v>68.184604991258496</v>
       </c>
       <c r="AG11">
         <v>10</v>
@@ -2104,7 +2213,7 @@
         <v>37</v>
       </c>
       <c r="AI11">
-        <v>67.8035334971995</v>
+        <v>67.803533497199496</v>
       </c>
       <c r="AJ11">
         <v>9</v>
@@ -2113,7 +2222,7 @@
         <v>37</v>
       </c>
       <c r="AL11">
-        <v>68.67284944769899</v>
+        <v>68.672849447698994</v>
       </c>
       <c r="AM11">
         <v>9</v>
@@ -2122,7 +2231,7 @@
         <v>60</v>
       </c>
       <c r="AO11">
-        <v>66.5558808323802</v>
+        <v>66.555880832380197</v>
       </c>
       <c r="AP11">
         <v>9</v>
@@ -2131,7 +2240,7 @@
         <v>37</v>
       </c>
       <c r="AR11">
-        <v>68.9503769749536</v>
+        <v>68.950376974953599</v>
       </c>
       <c r="AS11">
         <v>9</v>
@@ -2140,7 +2249,7 @@
         <v>37</v>
       </c>
       <c r="AU11">
-        <v>65.3161988259731</v>
+        <v>65.316198825973103</v>
       </c>
       <c r="AV11">
         <v>9</v>
@@ -2149,7 +2258,7 @@
         <v>37</v>
       </c>
       <c r="AX11">
-        <v>68.3911214100486</v>
+        <v>68.391121410048598</v>
       </c>
       <c r="AY11">
         <v>9</v>
@@ -2158,7 +2267,7 @@
         <v>37</v>
       </c>
       <c r="BA11">
-        <v>65.9229469913387</v>
+        <v>65.922946991338705</v>
       </c>
       <c r="BB11">
         <v>2</v>
@@ -2179,36 +2288,36 @@
         <v>24.9399822285799</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
       <c r="Y12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Z12" s="1">
-        <v>26.3558989656391</v>
+        <v>26.355898965639099</v>
       </c>
       <c r="AA12" s="1">
         <v>10</v>
@@ -2217,7 +2326,7 @@
         <v>78</v>
       </c>
       <c r="AC12" s="1">
-        <v>26.3959460469539</v>
+        <v>26.395946046953899</v>
       </c>
       <c r="AD12" s="1">
         <v>5</v>
@@ -2226,7 +2335,7 @@
         <v>37</v>
       </c>
       <c r="AF12">
-        <v>68.1846049912585</v>
+        <v>68.184604991258496</v>
       </c>
       <c r="AG12">
         <v>10</v>
@@ -2235,7 +2344,7 @@
         <v>37</v>
       </c>
       <c r="AI12">
-        <v>67.8035334971995</v>
+        <v>67.803533497199496</v>
       </c>
       <c r="AJ12">
         <v>9</v>
@@ -2244,7 +2353,7 @@
         <v>37</v>
       </c>
       <c r="AL12">
-        <v>68.67284944769899</v>
+        <v>68.672849447698994</v>
       </c>
       <c r="AM12">
         <v>9</v>
@@ -2253,7 +2362,7 @@
         <v>60</v>
       </c>
       <c r="AO12">
-        <v>66.5558808323802</v>
+        <v>66.555880832380197</v>
       </c>
       <c r="AP12">
         <v>9</v>
@@ -2262,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="AR12">
-        <v>68.9503769749536</v>
+        <v>68.950376974953599</v>
       </c>
       <c r="AS12">
         <v>9</v>
@@ -2271,7 +2380,7 @@
         <v>37</v>
       </c>
       <c r="AU12">
-        <v>65.3161988259731</v>
+        <v>65.316198825973103</v>
       </c>
       <c r="AV12">
         <v>9</v>
@@ -2280,7 +2389,7 @@
         <v>37</v>
       </c>
       <c r="AX12">
-        <v>68.3911214100486</v>
+        <v>68.391121410048598</v>
       </c>
       <c r="AY12">
         <v>9</v>
@@ -2289,7 +2398,7 @@
         <v>37</v>
       </c>
       <c r="BA12">
-        <v>65.9229469913387</v>
+        <v>65.922946991338705</v>
       </c>
       <c r="BB12">
         <v>2</v>
@@ -2298,7 +2407,7 @@
         <v>78</v>
       </c>
       <c r="BD12">
-        <v>26.3558989656391</v>
+        <v>26.355898965639099</v>
       </c>
       <c r="BE12">
         <v>10</v>
@@ -2307,33 +2416,33 @@
         <v>78</v>
       </c>
       <c r="BG12">
-        <v>26.3959460469539</v>
+        <v>26.395946046953899</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="1">
         <v>8</v>
       </c>
@@ -2341,7 +2450,7 @@
         <v>37</v>
       </c>
       <c r="Z13" s="1">
-        <v>68.313657601838</v>
+        <v>68.313657601838003</v>
       </c>
       <c r="AA13" s="1">
         <v>8</v>
@@ -2350,7 +2459,7 @@
         <v>37</v>
       </c>
       <c r="AC13" s="1">
-        <v>64.6625224844111</v>
+        <v>64.662522484411099</v>
       </c>
       <c r="AD13" s="1">
         <v>4</v>
@@ -2359,7 +2468,7 @@
         <v>37</v>
       </c>
       <c r="AF13">
-        <v>68.1846049912585</v>
+        <v>68.184604991258496</v>
       </c>
       <c r="AG13">
         <v>10</v>
@@ -2368,7 +2477,7 @@
         <v>37</v>
       </c>
       <c r="AI13">
-        <v>67.8035334971995</v>
+        <v>67.803533497199496</v>
       </c>
       <c r="AJ13">
         <v>9</v>
@@ -2377,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="AL13">
-        <v>68.67284944769899</v>
+        <v>68.672849447698994</v>
       </c>
       <c r="AM13">
         <v>9</v>
@@ -2386,7 +2495,7 @@
         <v>60</v>
       </c>
       <c r="AO13">
-        <v>66.5558808323802</v>
+        <v>66.555880832380197</v>
       </c>
       <c r="AP13">
         <v>9</v>
@@ -2395,7 +2504,7 @@
         <v>37</v>
       </c>
       <c r="AR13">
-        <v>68.9503769749536</v>
+        <v>68.950376974953599</v>
       </c>
       <c r="AS13">
         <v>9</v>
@@ -2404,7 +2513,7 @@
         <v>37</v>
       </c>
       <c r="AU13">
-        <v>65.3161988259731</v>
+        <v>65.316198825973103</v>
       </c>
       <c r="AV13">
         <v>9</v>
@@ -2413,7 +2522,7 @@
         <v>37</v>
       </c>
       <c r="AX13">
-        <v>68.3911214100486</v>
+        <v>68.391121410048598</v>
       </c>
       <c r="AY13">
         <v>9</v>
@@ -2422,7 +2531,7 @@
         <v>37</v>
       </c>
       <c r="BA13">
-        <v>65.9229469913387</v>
+        <v>65.922946991338705</v>
       </c>
       <c r="BB13">
         <v>8</v>
@@ -2431,7 +2540,7 @@
         <v>37</v>
       </c>
       <c r="BD13">
-        <v>68.313657601838</v>
+        <v>68.313657601838003</v>
       </c>
       <c r="BE13">
         <v>8</v>
@@ -2440,10 +2549,10 @@
         <v>37</v>
       </c>
       <c r="BG13">
-        <v>64.6625224844111</v>
+        <v>64.662522484411099</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2457,7 +2566,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="1">
-        <v>39.7320197600603</v>
+        <v>39.732019760060297</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
@@ -2475,7 +2584,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="1">
-        <v>39.9113542313279</v>
+        <v>39.911354231327898</v>
       </c>
       <c r="L14" s="1">
         <v>9</v>
@@ -2484,7 +2593,7 @@
         <v>39</v>
       </c>
       <c r="N14" s="1">
-        <v>40.2477060717023</v>
+        <v>40.247706071702297</v>
       </c>
       <c r="O14" s="1">
         <v>9</v>
@@ -2493,7 +2602,7 @@
         <v>39</v>
       </c>
       <c r="Q14" s="1">
-        <v>40.0876581051221</v>
+        <v>40.087658105122102</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2523,7 +2632,7 @@
         <v>39</v>
       </c>
       <c r="AI14">
-        <v>39.7320197600603</v>
+        <v>39.732019760060297</v>
       </c>
       <c r="AJ14">
         <v>10</v>
@@ -2541,7 +2650,7 @@
         <v>39</v>
       </c>
       <c r="AO14">
-        <v>39.9113542313279</v>
+        <v>39.911354231327898</v>
       </c>
       <c r="AP14">
         <v>9</v>
@@ -2550,7 +2659,7 @@
         <v>39</v>
       </c>
       <c r="AR14">
-        <v>40.2477060717023</v>
+        <v>40.247706071702297</v>
       </c>
       <c r="AS14">
         <v>9</v>
@@ -2559,15 +2668,15 @@
         <v>39</v>
       </c>
       <c r="AU14">
-        <v>40.0876581051221</v>
+        <v>40.087658105122102</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1">
-        <v>25.013187825234</v>
+        <v>25.013187825233999</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -2576,7 +2685,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="1">
-        <v>25.0195620426445</v>
+        <v>25.019562042644498</v>
       </c>
       <c r="F15" s="1">
         <v>9</v>
@@ -2585,7 +2694,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="1">
-        <v>25.0210964367189</v>
+        <v>25.021096436718899</v>
       </c>
       <c r="I15" s="1">
         <v>9</v>
@@ -2603,7 +2712,7 @@
         <v>69</v>
       </c>
       <c r="N15" s="1">
-        <v>24.7350305859576</v>
+        <v>24.735030585957599</v>
       </c>
       <c r="O15" s="1">
         <v>9</v>
@@ -2621,7 +2730,7 @@
         <v>69</v>
       </c>
       <c r="T15" s="1">
-        <v>24.7071710361106</v>
+        <v>24.707171036110601</v>
       </c>
       <c r="U15" s="1">
         <v>10</v>
@@ -2651,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="AF15">
-        <v>25.013187825234</v>
+        <v>25.013187825233999</v>
       </c>
       <c r="AG15">
         <v>10</v>
@@ -2660,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="AI15">
-        <v>25.0195620426445</v>
+        <v>25.019562042644498</v>
       </c>
       <c r="AJ15">
         <v>9</v>
@@ -2669,7 +2778,7 @@
         <v>40</v>
       </c>
       <c r="AL15">
-        <v>25.0210964367189</v>
+        <v>25.021096436718899</v>
       </c>
       <c r="AM15">
         <v>9</v>
@@ -2687,7 +2796,7 @@
         <v>69</v>
       </c>
       <c r="AR15">
-        <v>24.7350305859576</v>
+        <v>24.735030585957599</v>
       </c>
       <c r="AS15">
         <v>9</v>
@@ -2705,7 +2814,7 @@
         <v>69</v>
       </c>
       <c r="AX15">
-        <v>24.7071710361106</v>
+        <v>24.707171036110601</v>
       </c>
       <c r="AY15">
         <v>10</v>
@@ -2726,12 +2835,12 @@
         <v>24.2948137724992</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1">
-        <v>40.4127962662786</v>
+        <v>40.412796266278598</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -2749,7 +2858,7 @@
         <v>53</v>
       </c>
       <c r="H16" s="1">
-        <v>37.1379562854877</v>
+        <v>37.137956285487697</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
@@ -2758,7 +2867,7 @@
         <v>53</v>
       </c>
       <c r="K16" s="1">
-        <v>37.3839716521497</v>
+        <v>37.383971652149697</v>
       </c>
       <c r="L16" s="1">
         <v>10</v>
@@ -2767,7 +2876,7 @@
         <v>53</v>
       </c>
       <c r="N16" s="1">
-        <v>37.1283929138502</v>
+        <v>37.128392913850199</v>
       </c>
       <c r="O16" s="1">
         <v>10</v>
@@ -2776,7 +2885,7 @@
         <v>41</v>
       </c>
       <c r="Q16" s="1">
-        <v>38.5156185206281</v>
+        <v>38.515618520628102</v>
       </c>
       <c r="R16" s="1">
         <v>9</v>
@@ -2794,7 +2903,7 @@
         <v>53</v>
       </c>
       <c r="W16" s="1">
-        <v>37.1035587954215</v>
+        <v>37.103558795421499</v>
       </c>
       <c r="X16" s="1">
         <v>10</v>
@@ -2803,7 +2912,7 @@
         <v>53</v>
       </c>
       <c r="Z16" s="1">
-        <v>37.216469007281</v>
+        <v>37.216469007280999</v>
       </c>
       <c r="AA16" s="1">
         <v>9</v>
@@ -2821,7 +2930,7 @@
         <v>41</v>
       </c>
       <c r="AF16">
-        <v>40.4127962662786</v>
+        <v>40.412796266278598</v>
       </c>
       <c r="AG16">
         <v>10</v>
@@ -2839,7 +2948,7 @@
         <v>53</v>
       </c>
       <c r="AL16">
-        <v>37.1379562854877</v>
+        <v>37.137956285487697</v>
       </c>
       <c r="AM16">
         <v>10</v>
@@ -2848,7 +2957,7 @@
         <v>53</v>
       </c>
       <c r="AO16">
-        <v>37.3839716521497</v>
+        <v>37.383971652149697</v>
       </c>
       <c r="AP16">
         <v>10</v>
@@ -2857,7 +2966,7 @@
         <v>53</v>
       </c>
       <c r="AR16">
-        <v>37.1283929138502</v>
+        <v>37.128392913850199</v>
       </c>
       <c r="AS16">
         <v>10</v>
@@ -2866,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="AU16">
-        <v>38.5156185206281</v>
+        <v>38.515618520628102</v>
       </c>
       <c r="AV16">
         <v>9</v>
@@ -2884,7 +2993,7 @@
         <v>53</v>
       </c>
       <c r="BA16">
-        <v>37.1035587954215</v>
+        <v>37.103558795421499</v>
       </c>
       <c r="BB16">
         <v>10</v>
@@ -2893,7 +3002,7 @@
         <v>53</v>
       </c>
       <c r="BD16">
-        <v>37.216469007281</v>
+        <v>37.216469007280999</v>
       </c>
       <c r="BE16">
         <v>9</v>
@@ -2905,30 +3014,30 @@
         <v>35.7642299264527</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>133.807666164528</v>
       </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1">
-        <v>134.588943270338</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="2">
+        <v>134.58894327033801</v>
+      </c>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="1">
-        <v>40.6752561699363</v>
+        <v>40.675256169936297</v>
       </c>
       <c r="I17" s="1">
         <v>8</v>
@@ -2937,7 +3046,7 @@
         <v>61</v>
       </c>
       <c r="K17" s="1">
-        <v>36.6143664492476</v>
+        <v>36.614366449247598</v>
       </c>
       <c r="L17" s="1">
         <v>10</v>
@@ -2946,7 +3055,7 @@
         <v>61</v>
       </c>
       <c r="N17" s="1">
-        <v>36.0363129201972</v>
+        <v>36.036312920197197</v>
       </c>
       <c r="O17" s="1">
         <v>9</v>
@@ -2955,7 +3064,7 @@
         <v>61</v>
       </c>
       <c r="Q17" s="1">
-        <v>35.4081366462777</v>
+        <v>35.408136646277697</v>
       </c>
       <c r="R17" s="1">
         <v>7</v>
@@ -2973,7 +3082,7 @@
         <v>54</v>
       </c>
       <c r="W17" s="1">
-        <v>39.6061096655152</v>
+        <v>39.606109665515199</v>
       </c>
       <c r="X17" s="1">
         <v>10</v>
@@ -2982,7 +3091,7 @@
         <v>54</v>
       </c>
       <c r="Z17" s="1">
-        <v>40.1401171577154</v>
+        <v>40.140117157715402</v>
       </c>
       <c r="AA17" s="1">
         <v>10</v>
@@ -2991,7 +3100,7 @@
         <v>54</v>
       </c>
       <c r="AC17" s="1">
-        <v>38.4200613050919</v>
+        <v>38.420061305091899</v>
       </c>
       <c r="AD17" s="1">
         <v>0</v>
@@ -3009,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="AI17">
-        <v>134.588943270338</v>
+        <v>134.58894327033801</v>
       </c>
       <c r="AJ17">
         <v>1</v>
@@ -3018,7 +3127,7 @@
         <v>54</v>
       </c>
       <c r="AL17">
-        <v>40.6752561699363</v>
+        <v>40.675256169936297</v>
       </c>
       <c r="AM17">
         <v>8</v>
@@ -3027,7 +3136,7 @@
         <v>61</v>
       </c>
       <c r="AO17">
-        <v>36.6143664492476</v>
+        <v>36.614366449247598</v>
       </c>
       <c r="AP17">
         <v>10</v>
@@ -3036,7 +3145,7 @@
         <v>61</v>
       </c>
       <c r="AR17">
-        <v>36.0363129201972</v>
+        <v>36.036312920197197</v>
       </c>
       <c r="AS17">
         <v>9</v>
@@ -3045,7 +3154,7 @@
         <v>61</v>
       </c>
       <c r="AU17">
-        <v>35.4081366462777</v>
+        <v>35.408136646277697</v>
       </c>
       <c r="AV17">
         <v>7</v>
@@ -3063,7 +3172,7 @@
         <v>54</v>
       </c>
       <c r="BA17">
-        <v>39.6061096655152</v>
+        <v>39.606109665515199</v>
       </c>
       <c r="BB17">
         <v>10</v>
@@ -3072,7 +3181,7 @@
         <v>54</v>
       </c>
       <c r="BD17">
-        <v>40.1401171577154</v>
+        <v>40.140117157715402</v>
       </c>
       <c r="BE17">
         <v>10</v>
@@ -3081,77 +3190,77 @@
         <v>54</v>
       </c>
       <c r="BG17">
-        <v>38.4200613050919</v>
+        <v>38.420061305091899</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5">
         <v>8</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="1">
-        <v>129.595839539752</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="H18" s="2">
+        <v>129.59583953975201</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="1">
-        <v>135.105684299814</v>
-      </c>
-      <c r="L18" s="1">
-        <v>10</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="2">
+        <v>135.10568429981399</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>127.695946723243</v>
       </c>
-      <c r="O18" s="1">
-        <v>9</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="2">
+        <v>9</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="2">
         <v>129.636945232165</v>
       </c>
-      <c r="R18" s="1">
-        <v>9</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="R18" s="2">
+        <v>9</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="1">
-        <v>130.487599610983</v>
-      </c>
-      <c r="U18" s="1">
-        <v>10</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="T18" s="2">
+        <v>130.48759961098301</v>
+      </c>
+      <c r="U18" s="2">
+        <v>10</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="2">
         <v>127.607254358042</v>
       </c>
-      <c r="X18" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="1" t="s">
+      <c r="X18" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" s="1">
-        <v>131.534639214461</v>
+      <c r="Z18" s="2">
+        <v>131.53463921446101</v>
       </c>
       <c r="AA18" s="1">
         <v>4</v>
@@ -3160,7 +3269,7 @@
         <v>92</v>
       </c>
       <c r="AC18" s="1">
-        <v>40.444128890789</v>
+        <v>40.444128890789003</v>
       </c>
       <c r="AD18" s="1">
         <v>1</v>
@@ -3178,7 +3287,7 @@
         <v>42</v>
       </c>
       <c r="AI18">
-        <v>134.588943270338</v>
+        <v>134.58894327033801</v>
       </c>
       <c r="AJ18">
         <v>8</v>
@@ -3187,7 +3296,7 @@
         <v>42</v>
       </c>
       <c r="AL18">
-        <v>129.595839539752</v>
+        <v>129.59583953975201</v>
       </c>
       <c r="AM18">
         <v>10</v>
@@ -3196,7 +3305,7 @@
         <v>42</v>
       </c>
       <c r="AO18">
-        <v>135.105684299814</v>
+        <v>135.10568429981399</v>
       </c>
       <c r="AP18">
         <v>10</v>
@@ -3223,7 +3332,7 @@
         <v>42</v>
       </c>
       <c r="AX18">
-        <v>130.487599610983</v>
+        <v>130.48759961098301</v>
       </c>
       <c r="AY18">
         <v>10</v>
@@ -3241,7 +3350,7 @@
         <v>42</v>
       </c>
       <c r="BD18">
-        <v>131.534639214461</v>
+        <v>131.53463921446101</v>
       </c>
       <c r="BE18">
         <v>4</v>
@@ -3250,36 +3359,36 @@
         <v>92</v>
       </c>
       <c r="BG18">
-        <v>40.444128890789</v>
+        <v>40.444128890789003</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="1">
         <v>8</v>
       </c>
@@ -3287,7 +3396,7 @@
         <v>42</v>
       </c>
       <c r="AC19" s="1">
-        <v>128.189958457153</v>
+        <v>128.18995845715301</v>
       </c>
       <c r="AD19" s="1">
         <v>2</v>
@@ -3305,7 +3414,7 @@
         <v>42</v>
       </c>
       <c r="AI19">
-        <v>134.588943270338</v>
+        <v>134.58894327033801</v>
       </c>
       <c r="AJ19">
         <v>8</v>
@@ -3314,7 +3423,7 @@
         <v>42</v>
       </c>
       <c r="AL19">
-        <v>129.595839539752</v>
+        <v>129.59583953975201</v>
       </c>
       <c r="AM19">
         <v>10</v>
@@ -3323,7 +3432,7 @@
         <v>42</v>
       </c>
       <c r="AO19">
-        <v>135.105684299814</v>
+        <v>135.10568429981399</v>
       </c>
       <c r="AP19">
         <v>10</v>
@@ -3350,7 +3459,7 @@
         <v>42</v>
       </c>
       <c r="AX19">
-        <v>130.487599610983</v>
+        <v>130.48759961098301</v>
       </c>
       <c r="AY19">
         <v>10</v>
@@ -3368,7 +3477,7 @@
         <v>42</v>
       </c>
       <c r="BD19">
-        <v>131.534639214461</v>
+        <v>131.53463921446101</v>
       </c>
       <c r="BE19">
         <v>8</v>
@@ -3377,15 +3486,15 @@
         <v>42</v>
       </c>
       <c r="BG19">
-        <v>128.189958457153</v>
+        <v>128.18995845715301</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1">
-        <v>60.3357629573916</v>
+      <c r="B20" s="2">
+        <v>60.335762957391601</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -3394,7 +3503,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="1">
-        <v>31.9566296134629</v>
+        <v>31.956629613462901</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3427,7 +3536,7 @@
         <v>43</v>
       </c>
       <c r="AF20">
-        <v>60.3357629573916</v>
+        <v>60.335762957391601</v>
       </c>
       <c r="AG20">
         <v>3</v>
@@ -3436,47 +3545,47 @@
         <v>50</v>
       </c>
       <c r="AI20">
-        <v>31.9566296134629</v>
+        <v>31.956629613462901</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="1">
-        <v>53.2775385453845</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="2">
+        <v>53.277538545384502</v>
+      </c>
+      <c r="F21" s="3">
         <v>8</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="1">
-        <v>59.2661019842372</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="H21" s="2">
+        <v>59.266101984237203</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="1">
-        <v>60.2858329609928</v>
-      </c>
-      <c r="L21" s="1">
-        <v>10</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="K21" s="2">
+        <v>60.285832960992799</v>
+      </c>
+      <c r="L21" s="2">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="1">
-        <v>60.0138967525985</v>
+      <c r="N21" s="2">
+        <v>60.013896752598498</v>
       </c>
       <c r="O21" s="1">
         <v>3</v>
@@ -3506,7 +3615,7 @@
         <v>43</v>
       </c>
       <c r="AF21">
-        <v>60.3357629573916</v>
+        <v>60.335762957391601</v>
       </c>
       <c r="AG21">
         <v>8</v>
@@ -3515,7 +3624,7 @@
         <v>51</v>
       </c>
       <c r="AI21">
-        <v>53.2775385453845</v>
+        <v>53.277538545384502</v>
       </c>
       <c r="AJ21">
         <v>8</v>
@@ -3524,7 +3633,7 @@
         <v>43</v>
       </c>
       <c r="AL21">
-        <v>59.2661019842372</v>
+        <v>59.266101984237203</v>
       </c>
       <c r="AM21">
         <v>10</v>
@@ -3533,7 +3642,7 @@
         <v>43</v>
       </c>
       <c r="AO21">
-        <v>60.2858329609928</v>
+        <v>60.285832960992799</v>
       </c>
       <c r="AP21">
         <v>10</v>
@@ -3542,7 +3651,7 @@
         <v>43</v>
       </c>
       <c r="AR21">
-        <v>60.0138967525985</v>
+        <v>60.013896752598498</v>
       </c>
       <c r="AS21">
         <v>3</v>
@@ -3554,21 +3663,21 @@
         <v>31.930141508913</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>8</v>
       </c>
@@ -3576,7 +3685,7 @@
         <v>51</v>
       </c>
       <c r="Q22" s="1">
-        <v>51.7749253200149</v>
+        <v>51.774925320014901</v>
       </c>
       <c r="R22" s="1">
         <v>8</v>
@@ -3585,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="T22" s="1">
-        <v>59.1655642791086</v>
+        <v>59.165564279108601</v>
       </c>
       <c r="U22" s="1">
         <v>10</v>
@@ -3594,7 +3703,7 @@
         <v>43</v>
       </c>
       <c r="W22" s="1">
-        <v>58.0842708918622</v>
+        <v>58.084270891862197</v>
       </c>
       <c r="X22" s="1">
         <v>10</v>
@@ -3603,7 +3712,7 @@
         <v>43</v>
       </c>
       <c r="Z22" s="1">
-        <v>59.0510846712215</v>
+        <v>59.051084671221503</v>
       </c>
       <c r="AA22" s="1">
         <v>10</v>
@@ -3612,7 +3721,7 @@
         <v>43</v>
       </c>
       <c r="AC22" s="1">
-        <v>58.0185166031836</v>
+        <v>58.018516603183599</v>
       </c>
       <c r="AD22" s="1">
         <v>23</v>
@@ -3621,7 +3730,7 @@
         <v>43</v>
       </c>
       <c r="AF22">
-        <v>60.3357629573916</v>
+        <v>60.335762957391601</v>
       </c>
       <c r="AG22">
         <v>8</v>
@@ -3630,7 +3739,7 @@
         <v>51</v>
       </c>
       <c r="AI22">
-        <v>53.2775385453845</v>
+        <v>53.277538545384502</v>
       </c>
       <c r="AJ22">
         <v>8</v>
@@ -3639,7 +3748,7 @@
         <v>43</v>
       </c>
       <c r="AL22">
-        <v>59.2661019842372</v>
+        <v>59.266101984237203</v>
       </c>
       <c r="AM22">
         <v>10</v>
@@ -3648,7 +3757,7 @@
         <v>43</v>
       </c>
       <c r="AO22">
-        <v>60.2858329609928</v>
+        <v>60.285832960992799</v>
       </c>
       <c r="AP22">
         <v>10</v>
@@ -3657,7 +3766,7 @@
         <v>43</v>
       </c>
       <c r="AR22">
-        <v>60.0138967525985</v>
+        <v>60.013896752598498</v>
       </c>
       <c r="AS22">
         <v>8</v>
@@ -3666,7 +3775,7 @@
         <v>51</v>
       </c>
       <c r="AU22">
-        <v>51.7749253200149</v>
+        <v>51.774925320014901</v>
       </c>
       <c r="AV22">
         <v>8</v>
@@ -3675,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="AX22">
-        <v>59.1655642791086</v>
+        <v>59.165564279108601</v>
       </c>
       <c r="AY22">
         <v>10</v>
@@ -3684,7 +3793,7 @@
         <v>43</v>
       </c>
       <c r="BA22">
-        <v>58.0842708918622</v>
+        <v>58.084270891862197</v>
       </c>
       <c r="BB22">
         <v>10</v>
@@ -3693,7 +3802,7 @@
         <v>43</v>
       </c>
       <c r="BD22">
-        <v>59.0510846712215</v>
+        <v>59.051084671221503</v>
       </c>
       <c r="BE22">
         <v>10</v>
@@ -3702,33 +3811,33 @@
         <v>43</v>
       </c>
       <c r="BG22">
-        <v>58.0185166031836</v>
+        <v>58.018516603183599</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1">
-        <v>79.272873262715</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="2">
+        <v>79.272873262714995</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="1">
-        <v>79.48246477330299</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="2">
+        <v>79.482464773302993</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="1">
-        <v>79.31603079652059</v>
+      <c r="H23" s="2">
+        <v>79.316030796520593</v>
       </c>
       <c r="I23" s="1">
         <v>4</v>
@@ -3764,7 +3873,7 @@
         <v>44</v>
       </c>
       <c r="AF23">
-        <v>79.272873262715</v>
+        <v>79.272873262714995</v>
       </c>
       <c r="AG23">
         <v>10</v>
@@ -3773,7 +3882,7 @@
         <v>44</v>
       </c>
       <c r="AI23">
-        <v>79.48246477330299</v>
+        <v>79.482464773302993</v>
       </c>
       <c r="AJ23">
         <v>10</v>
@@ -3782,7 +3891,7 @@
         <v>44</v>
       </c>
       <c r="AL23">
-        <v>79.31603079652059</v>
+        <v>79.316030796520593</v>
       </c>
       <c r="AM23">
         <v>4</v>
@@ -3794,15 +3903,15 @@
         <v>50.5783998875687</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1">
         <v>9</v>
       </c>
@@ -3810,7 +3919,7 @@
         <v>63</v>
       </c>
       <c r="K24" s="1">
-        <v>75.4648452994396</v>
+        <v>75.464845299439602</v>
       </c>
       <c r="L24" s="1">
         <v>9</v>
@@ -3819,7 +3928,7 @@
         <v>44</v>
       </c>
       <c r="N24" s="1">
-        <v>78.40763604524901</v>
+        <v>78.407636045249006</v>
       </c>
       <c r="O24" s="1">
         <v>10</v>
@@ -3828,7 +3937,7 @@
         <v>63</v>
       </c>
       <c r="Q24" s="1">
-        <v>77.79601177528021</v>
+        <v>77.796011775280206</v>
       </c>
       <c r="R24" s="1">
         <v>10</v>
@@ -3837,7 +3946,7 @@
         <v>44</v>
       </c>
       <c r="T24" s="1">
-        <v>78.4667873161478</v>
+        <v>78.466787316147801</v>
       </c>
       <c r="U24" s="1">
         <v>10</v>
@@ -3846,7 +3955,7 @@
         <v>63</v>
       </c>
       <c r="W24" s="1">
-        <v>78.41746304008829</v>
+        <v>78.417463040088293</v>
       </c>
       <c r="X24" s="1">
         <v>10</v>
@@ -3855,7 +3964,7 @@
         <v>44</v>
       </c>
       <c r="Z24" s="1">
-        <v>78.24158338296741</v>
+        <v>78.241583382967406</v>
       </c>
       <c r="AA24" s="1">
         <v>10</v>
@@ -3864,7 +3973,7 @@
         <v>44</v>
       </c>
       <c r="AC24" s="1">
-        <v>78.8690097619814</v>
+        <v>78.869009761981403</v>
       </c>
       <c r="AD24" s="1">
         <v>24</v>
@@ -3873,7 +3982,7 @@
         <v>44</v>
       </c>
       <c r="AF24">
-        <v>79.272873262715</v>
+        <v>79.272873262714995</v>
       </c>
       <c r="AG24">
         <v>10</v>
@@ -3882,7 +3991,7 @@
         <v>44</v>
       </c>
       <c r="AI24">
-        <v>79.48246477330299</v>
+        <v>79.482464773302993</v>
       </c>
       <c r="AJ24">
         <v>10</v>
@@ -3891,7 +4000,7 @@
         <v>44</v>
       </c>
       <c r="AL24">
-        <v>79.31603079652059</v>
+        <v>79.316030796520593</v>
       </c>
       <c r="AM24">
         <v>9</v>
@@ -3900,7 +4009,7 @@
         <v>63</v>
       </c>
       <c r="AO24">
-        <v>75.4648452994396</v>
+        <v>75.464845299439602</v>
       </c>
       <c r="AP24">
         <v>9</v>
@@ -3909,7 +4018,7 @@
         <v>44</v>
       </c>
       <c r="AR24">
-        <v>78.40763604524901</v>
+        <v>78.407636045249006</v>
       </c>
       <c r="AS24">
         <v>10</v>
@@ -3918,7 +4027,7 @@
         <v>63</v>
       </c>
       <c r="AU24">
-        <v>77.79601177528021</v>
+        <v>77.796011775280206</v>
       </c>
       <c r="AV24">
         <v>10</v>
@@ -3927,7 +4036,7 @@
         <v>44</v>
       </c>
       <c r="AX24">
-        <v>78.4667873161478</v>
+        <v>78.466787316147801</v>
       </c>
       <c r="AY24">
         <v>10</v>
@@ -3936,7 +4045,7 @@
         <v>63</v>
       </c>
       <c r="BA24">
-        <v>78.41746304008829</v>
+        <v>78.417463040088293</v>
       </c>
       <c r="BB24">
         <v>10</v>
@@ -3945,7 +4054,7 @@
         <v>44</v>
       </c>
       <c r="BD24">
-        <v>78.24158338296741</v>
+        <v>78.241583382967406</v>
       </c>
       <c r="BE24">
         <v>10</v>
@@ -3954,26 +4063,26 @@
         <v>44</v>
       </c>
       <c r="BG24">
-        <v>78.8690097619814</v>
+        <v>78.869009761981403</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1">
-        <v>45.5231872759942</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="2">
+        <v>45.523187275994196</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="1">
-        <v>45.3273812630408</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="2">
+        <v>45.327381263040799</v>
+      </c>
+      <c r="F25" s="3">
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4010,7 +4119,7 @@
         <v>45</v>
       </c>
       <c r="AF25">
-        <v>45.5231872759942</v>
+        <v>45.523187275994196</v>
       </c>
       <c r="AG25">
         <v>10</v>
@@ -4019,7 +4128,7 @@
         <v>45</v>
       </c>
       <c r="AI25">
-        <v>45.3273812630408</v>
+        <v>45.327381263040799</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -4031,38 +4140,38 @@
         <v>24.2986151974652</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1" t="s">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="1">
-        <v>42.819709864512</v>
-      </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="H26" s="2">
+        <v>42.819709864511999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <v>43.2567244367781</v>
       </c>
-      <c r="L26" s="1">
-        <v>9</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="L26" s="2">
+        <v>9</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="1">
-        <v>40.665198222173</v>
+      <c r="N26" s="2">
+        <v>40.665198222172997</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -4071,12 +4180,12 @@
         <v>78</v>
       </c>
       <c r="Q26" s="1">
-        <v>26.482720401164</v>
+        <v>26.482720401163999</v>
       </c>
       <c r="R26" s="1">
         <v>10</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="7" t="s">
         <v>78</v>
       </c>
       <c r="T26" s="1">
@@ -4098,7 +4207,7 @@
         <v>45</v>
       </c>
       <c r="AF26">
-        <v>45.5231872759942</v>
+        <v>45.523187275994196</v>
       </c>
       <c r="AG26">
         <v>10</v>
@@ -4107,7 +4216,7 @@
         <v>45</v>
       </c>
       <c r="AI26">
-        <v>45.3273812630408</v>
+        <v>45.327381263040799</v>
       </c>
       <c r="AJ26">
         <v>9</v>
@@ -4116,7 +4225,7 @@
         <v>56</v>
       </c>
       <c r="AL26">
-        <v>42.819709864512</v>
+        <v>42.819709864511999</v>
       </c>
       <c r="AM26">
         <v>10</v>
@@ -4134,7 +4243,7 @@
         <v>70</v>
       </c>
       <c r="AR26">
-        <v>40.665198222173</v>
+        <v>40.665198222172997</v>
       </c>
       <c r="AS26">
         <v>1</v>
@@ -4143,7 +4252,7 @@
         <v>78</v>
       </c>
       <c r="AU26">
-        <v>26.482720401164</v>
+        <v>26.482720401163999</v>
       </c>
       <c r="AV26">
         <v>10</v>
@@ -4155,29 +4264,29 @@
         <v>26.4743930022501</v>
       </c>
     </row>
-    <row r="27" spans="1:59">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
         <v>6</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="1">
-        <v>39.3256030503472</v>
+      <c r="Q27" s="2">
+        <v>39.325603050347198</v>
       </c>
       <c r="R27" s="1">
         <v>3</v>
@@ -4186,7 +4295,7 @@
         <v>79</v>
       </c>
       <c r="T27" s="1">
-        <v>23.9675787587411</v>
+        <v>23.967578758741102</v>
       </c>
       <c r="U27" s="1">
         <v>10</v>
@@ -4195,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="W27" s="1">
-        <v>24.010855348666</v>
+        <v>24.010855348665999</v>
       </c>
       <c r="X27" s="1">
         <v>9</v>
@@ -4213,7 +4322,7 @@
         <v>93</v>
       </c>
       <c r="AC27" s="1">
-        <v>24.0732838072862</v>
+        <v>24.073283807286199</v>
       </c>
       <c r="AD27" s="1">
         <v>37</v>
@@ -4222,7 +4331,7 @@
         <v>45</v>
       </c>
       <c r="AF27">
-        <v>45.5231872759942</v>
+        <v>45.523187275994196</v>
       </c>
       <c r="AG27">
         <v>10</v>
@@ -4231,7 +4340,7 @@
         <v>45</v>
       </c>
       <c r="AI27">
-        <v>45.3273812630408</v>
+        <v>45.327381263040799</v>
       </c>
       <c r="AJ27">
         <v>9</v>
@@ -4240,7 +4349,7 @@
         <v>56</v>
       </c>
       <c r="AL27">
-        <v>42.819709864512</v>
+        <v>42.819709864511999</v>
       </c>
       <c r="AM27">
         <v>10</v>
@@ -4258,7 +4367,7 @@
         <v>70</v>
       </c>
       <c r="AR27">
-        <v>40.665198222173</v>
+        <v>40.665198222172997</v>
       </c>
       <c r="AS27">
         <v>6</v>
@@ -4267,7 +4376,7 @@
         <v>64</v>
       </c>
       <c r="AU27">
-        <v>39.3256030503472</v>
+        <v>39.325603050347198</v>
       </c>
       <c r="AV27">
         <v>3</v>
@@ -4276,7 +4385,7 @@
         <v>79</v>
       </c>
       <c r="AX27">
-        <v>23.9675787587411</v>
+        <v>23.967578758741102</v>
       </c>
       <c r="AY27">
         <v>10</v>
@@ -4285,7 +4394,7 @@
         <v>79</v>
       </c>
       <c r="BA27">
-        <v>24.010855348666</v>
+        <v>24.010855348665999</v>
       </c>
       <c r="BB27">
         <v>9</v>
@@ -4303,27 +4412,27 @@
         <v>93</v>
       </c>
       <c r="BG27">
-        <v>24.0732838072862</v>
+        <v>24.073283807286199</v>
       </c>
     </row>
-    <row r="28" spans="1:59">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
       <c r="R28" s="1">
         <v>6</v>
       </c>
@@ -4331,7 +4440,7 @@
         <v>80</v>
       </c>
       <c r="T28" s="1">
-        <v>37.8225287599464</v>
+        <v>37.822528759946401</v>
       </c>
       <c r="U28" s="1">
         <v>8</v>
@@ -4340,7 +4449,7 @@
         <v>70</v>
       </c>
       <c r="W28" s="1">
-        <v>36.647005359041</v>
+        <v>36.647005359041003</v>
       </c>
       <c r="X28" s="1">
         <v>7</v>
@@ -4349,7 +4458,7 @@
         <v>64</v>
       </c>
       <c r="Z28" s="1">
-        <v>41.0420483758867</v>
+        <v>41.042048375886701</v>
       </c>
       <c r="AA28" s="1">
         <v>8</v>
@@ -4358,7 +4467,7 @@
         <v>64</v>
       </c>
       <c r="AC28" s="1">
-        <v>36.4209457932298</v>
+        <v>36.420945793229798</v>
       </c>
       <c r="AD28" s="1">
         <v>38</v>
@@ -4367,7 +4476,7 @@
         <v>45</v>
       </c>
       <c r="AF28">
-        <v>45.5231872759942</v>
+        <v>45.523187275994196</v>
       </c>
       <c r="AG28">
         <v>10</v>
@@ -4376,7 +4485,7 @@
         <v>45</v>
       </c>
       <c r="AI28">
-        <v>45.3273812630408</v>
+        <v>45.327381263040799</v>
       </c>
       <c r="AJ28">
         <v>9</v>
@@ -4385,7 +4494,7 @@
         <v>56</v>
       </c>
       <c r="AL28">
-        <v>42.819709864512</v>
+        <v>42.819709864511999</v>
       </c>
       <c r="AM28">
         <v>10</v>
@@ -4403,7 +4512,7 @@
         <v>70</v>
       </c>
       <c r="AR28">
-        <v>40.665198222173</v>
+        <v>40.665198222172997</v>
       </c>
       <c r="AS28">
         <v>6</v>
@@ -4412,7 +4521,7 @@
         <v>64</v>
       </c>
       <c r="AU28">
-        <v>39.3256030503472</v>
+        <v>39.325603050347198</v>
       </c>
       <c r="AV28">
         <v>6</v>
@@ -4421,7 +4530,7 @@
         <v>80</v>
       </c>
       <c r="AX28">
-        <v>37.8225287599464</v>
+        <v>37.822528759946401</v>
       </c>
       <c r="AY28">
         <v>8</v>
@@ -4430,7 +4539,7 @@
         <v>70</v>
       </c>
       <c r="BA28">
-        <v>36.647005359041</v>
+        <v>36.647005359041003</v>
       </c>
       <c r="BB28">
         <v>7</v>
@@ -4439,7 +4548,7 @@
         <v>64</v>
       </c>
       <c r="BD28">
-        <v>41.0420483758867</v>
+        <v>41.042048375886701</v>
       </c>
       <c r="BE28">
         <v>8</v>
@@ -4448,87 +4557,87 @@
         <v>64</v>
       </c>
       <c r="BG28">
-        <v>36.4209457932298</v>
+        <v>36.420945793229798</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1">
-        <v>85.0065731922204</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="2">
+        <v>85.006573192220401</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="1">
-        <v>84.5353517433927</v>
-      </c>
-      <c r="F29" s="1">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="2">
+        <v>84.535351743392695</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="1">
-        <v>87.72918324823431</v>
-      </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="H29" s="2">
+        <v>87.729183248234307</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="1">
-        <v>87.9655686487141</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="K29" s="2">
+        <v>87.965568648714097</v>
+      </c>
+      <c r="L29" s="2">
         <v>7</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="1">
-        <v>81.4981285172714</v>
-      </c>
-      <c r="O29" s="1">
+      <c r="N29" s="2">
+        <v>81.498128517271397</v>
+      </c>
+      <c r="O29" s="2">
         <v>7</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q29" s="1">
-        <v>87.24242773642371</v>
-      </c>
-      <c r="R29" s="1">
+      <c r="Q29" s="2">
+        <v>87.242427736423707</v>
+      </c>
+      <c r="R29" s="2">
         <v>7</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="1">
-        <v>81.9374291094926</v>
-      </c>
-      <c r="U29" s="1">
-        <v>9</v>
-      </c>
-      <c r="V29" s="1" t="s">
+      <c r="T29" s="2">
+        <v>81.937429109492598</v>
+      </c>
+      <c r="U29" s="2">
+        <v>9</v>
+      </c>
+      <c r="V29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W29" s="1">
-        <v>82.1983402033478</v>
-      </c>
-      <c r="X29" s="1">
+      <c r="W29" s="2">
+        <v>82.198340203347797</v>
+      </c>
+      <c r="X29" s="2">
         <v>8</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Y29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="1">
-        <v>83.36646929028259</v>
+      <c r="Z29" s="2">
+        <v>83.366469290282595</v>
       </c>
       <c r="AA29" s="1">
         <v>5</v>
@@ -4546,7 +4655,7 @@
         <v>47</v>
       </c>
       <c r="AF29">
-        <v>85.0065731922204</v>
+        <v>85.006573192220401</v>
       </c>
       <c r="AG29">
         <v>10</v>
@@ -4555,7 +4664,7 @@
         <v>52</v>
       </c>
       <c r="AI29">
-        <v>84.5353517433927</v>
+        <v>84.535351743392695</v>
       </c>
       <c r="AJ29">
         <v>10</v>
@@ -4564,7 +4673,7 @@
         <v>47</v>
       </c>
       <c r="AL29">
-        <v>87.72918324823431</v>
+        <v>87.729183248234307</v>
       </c>
       <c r="AM29">
         <v>10</v>
@@ -4573,7 +4682,7 @@
         <v>47</v>
       </c>
       <c r="AO29">
-        <v>87.9655686487141</v>
+        <v>87.965568648714097</v>
       </c>
       <c r="AP29">
         <v>7</v>
@@ -4582,7 +4691,7 @@
         <v>52</v>
       </c>
       <c r="AR29">
-        <v>81.4981285172714</v>
+        <v>81.498128517271397</v>
       </c>
       <c r="AS29">
         <v>7</v>
@@ -4591,7 +4700,7 @@
         <v>47</v>
       </c>
       <c r="AU29">
-        <v>87.24242773642371</v>
+        <v>87.242427736423707</v>
       </c>
       <c r="AV29">
         <v>7</v>
@@ -4600,7 +4709,7 @@
         <v>52</v>
       </c>
       <c r="AX29">
-        <v>81.9374291094926</v>
+        <v>81.937429109492598</v>
       </c>
       <c r="AY29">
         <v>9</v>
@@ -4609,7 +4718,7 @@
         <v>52</v>
       </c>
       <c r="BA29">
-        <v>82.1983402033478</v>
+        <v>82.198340203347797</v>
       </c>
       <c r="BB29">
         <v>8</v>
@@ -4618,7 +4727,7 @@
         <v>47</v>
       </c>
       <c r="BD29">
-        <v>83.36646929028259</v>
+        <v>83.366469290282595</v>
       </c>
       <c r="BE29">
         <v>5</v>
@@ -4630,33 +4739,33 @@
         <v>32.8790466603132</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
       <c r="AA30" s="1">
         <v>6</v>
       </c>
@@ -4664,7 +4773,7 @@
         <v>95</v>
       </c>
       <c r="AC30" s="1">
-        <v>85.52971294656081</v>
+        <v>85.529712946560807</v>
       </c>
       <c r="AD30" s="1">
         <v>32</v>
@@ -4673,7 +4782,7 @@
         <v>47</v>
       </c>
       <c r="AF30">
-        <v>85.0065731922204</v>
+        <v>85.006573192220401</v>
       </c>
       <c r="AG30">
         <v>10</v>
@@ -4682,7 +4791,7 @@
         <v>52</v>
       </c>
       <c r="AI30">
-        <v>84.5353517433927</v>
+        <v>84.535351743392695</v>
       </c>
       <c r="AJ30">
         <v>10</v>
@@ -4691,7 +4800,7 @@
         <v>47</v>
       </c>
       <c r="AL30">
-        <v>87.72918324823431</v>
+        <v>87.729183248234307</v>
       </c>
       <c r="AM30">
         <v>10</v>
@@ -4700,7 +4809,7 @@
         <v>47</v>
       </c>
       <c r="AO30">
-        <v>87.9655686487141</v>
+        <v>87.965568648714097</v>
       </c>
       <c r="AP30">
         <v>7</v>
@@ -4709,7 +4818,7 @@
         <v>52</v>
       </c>
       <c r="AR30">
-        <v>81.4981285172714</v>
+        <v>81.498128517271397</v>
       </c>
       <c r="AS30">
         <v>7</v>
@@ -4718,7 +4827,7 @@
         <v>47</v>
       </c>
       <c r="AU30">
-        <v>87.24242773642371</v>
+        <v>87.242427736423707</v>
       </c>
       <c r="AV30">
         <v>7</v>
@@ -4727,7 +4836,7 @@
         <v>52</v>
       </c>
       <c r="AX30">
-        <v>81.9374291094926</v>
+        <v>81.937429109492598</v>
       </c>
       <c r="AY30">
         <v>9</v>
@@ -4736,7 +4845,7 @@
         <v>52</v>
       </c>
       <c r="BA30">
-        <v>82.1983402033478</v>
+        <v>82.198340203347797</v>
       </c>
       <c r="BB30">
         <v>8</v>
@@ -4745,7 +4854,7 @@
         <v>47</v>
       </c>
       <c r="BD30">
-        <v>83.36646929028259</v>
+        <v>83.366469290282595</v>
       </c>
       <c r="BE30">
         <v>6</v>
@@ -4754,15 +4863,15 @@
         <v>95</v>
       </c>
       <c r="BG30">
-        <v>85.52971294656081</v>
+        <v>85.529712946560807</v>
       </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="1">
-        <v>32.2906369586071</v>
+        <v>32.290636958607102</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -4771,7 +4880,7 @@
         <v>48</v>
       </c>
       <c r="E31" s="1">
-        <v>32.2903019330367</v>
+        <v>32.290301933036702</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
@@ -4789,7 +4898,7 @@
         <v>48</v>
       </c>
       <c r="K31" s="1">
-        <v>32.2632314352311</v>
+        <v>32.263231435231098</v>
       </c>
       <c r="L31" s="1">
         <v>10</v>
@@ -4798,7 +4907,7 @@
         <v>71</v>
       </c>
       <c r="N31" s="1">
-        <v>31.9926268938874</v>
+        <v>31.992626893887401</v>
       </c>
       <c r="O31" s="1">
         <v>10</v>
@@ -4807,7 +4916,7 @@
         <v>48</v>
       </c>
       <c r="Q31" s="1">
-        <v>32.319712625198</v>
+        <v>32.319712625198001</v>
       </c>
       <c r="R31" s="1">
         <v>10</v>
@@ -4816,7 +4925,7 @@
         <v>71</v>
       </c>
       <c r="T31" s="1">
-        <v>31.9906541360575</v>
+        <v>31.990654136057501</v>
       </c>
       <c r="U31" s="1">
         <v>10</v>
@@ -4825,7 +4934,7 @@
         <v>71</v>
       </c>
       <c r="W31" s="1">
-        <v>32.0382076738291</v>
+        <v>32.038207673829099</v>
       </c>
       <c r="X31" s="1">
         <v>10</v>
@@ -4834,7 +4943,7 @@
         <v>71</v>
       </c>
       <c r="Z31" s="1">
-        <v>31.7424795026229</v>
+        <v>31.742479502622899</v>
       </c>
       <c r="AA31" s="1">
         <v>9</v>
@@ -4852,7 +4961,7 @@
         <v>48</v>
       </c>
       <c r="AF31">
-        <v>32.2906369586071</v>
+        <v>32.290636958607102</v>
       </c>
       <c r="AG31">
         <v>10</v>
@@ -4861,7 +4970,7 @@
         <v>48</v>
       </c>
       <c r="AI31">
-        <v>32.2903019330367</v>
+        <v>32.290301933036702</v>
       </c>
       <c r="AJ31">
         <v>10</v>
@@ -4879,7 +4988,7 @@
         <v>48</v>
       </c>
       <c r="AO31">
-        <v>32.2632314352311</v>
+        <v>32.263231435231098</v>
       </c>
       <c r="AP31">
         <v>10</v>
@@ -4888,7 +4997,7 @@
         <v>71</v>
       </c>
       <c r="AR31">
-        <v>31.9926268938874</v>
+        <v>31.992626893887401</v>
       </c>
       <c r="AS31">
         <v>10</v>
@@ -4897,7 +5006,7 @@
         <v>48</v>
       </c>
       <c r="AU31">
-        <v>32.319712625198</v>
+        <v>32.319712625198001</v>
       </c>
       <c r="AV31">
         <v>10</v>
@@ -4906,7 +5015,7 @@
         <v>71</v>
       </c>
       <c r="AX31">
-        <v>31.9906541360575</v>
+        <v>31.990654136057501</v>
       </c>
       <c r="AY31">
         <v>10</v>
@@ -4915,7 +5024,7 @@
         <v>71</v>
       </c>
       <c r="BA31">
-        <v>32.0382076738291</v>
+        <v>32.038207673829099</v>
       </c>
       <c r="BB31">
         <v>10</v>
@@ -4924,7 +5033,7 @@
         <v>71</v>
       </c>
       <c r="BD31">
-        <v>31.7424795026229</v>
+        <v>31.742479502622899</v>
       </c>
       <c r="BE31">
         <v>9</v>
@@ -4936,39 +5045,39 @@
         <v>31.7909880594861</v>
       </c>
     </row>
-    <row r="32" spans="1:59">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="1">
-        <v>53.8172582670559</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B32" s="2">
+        <v>53.817258267055898</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="1">
-        <v>53.8104391477147</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="2">
+        <v>53.810439147714703</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="1">
-        <v>53.7632060599076</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="H32" s="2">
+        <v>53.763206059907603</v>
+      </c>
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="1">
-        <v>52.7287845990895</v>
+      <c r="K32" s="2">
+        <v>52.728784599089501</v>
       </c>
       <c r="L32" s="1">
         <v>6</v>
@@ -5001,7 +5110,7 @@
         <v>49</v>
       </c>
       <c r="AF32">
-        <v>53.8172582670559</v>
+        <v>53.817258267055898</v>
       </c>
       <c r="AG32">
         <v>10</v>
@@ -5010,7 +5119,7 @@
         <v>49</v>
       </c>
       <c r="AI32">
-        <v>53.8104391477147</v>
+        <v>53.810439147714703</v>
       </c>
       <c r="AJ32">
         <v>10</v>
@@ -5019,7 +5128,7 @@
         <v>49</v>
       </c>
       <c r="AL32">
-        <v>53.7632060599076</v>
+        <v>53.763206059907603</v>
       </c>
       <c r="AM32">
         <v>10</v>
@@ -5028,7 +5137,7 @@
         <v>49</v>
       </c>
       <c r="AO32">
-        <v>52.7287845990895</v>
+        <v>52.728784599089501</v>
       </c>
       <c r="AP32">
         <v>6</v>
@@ -5040,35 +5149,35 @@
         <v>25.3943626242359</v>
       </c>
     </row>
-    <row r="33" spans="1:59">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
         <v>7</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N33" s="1">
-        <v>50.830033350344</v>
-      </c>
-      <c r="O33" s="1">
+      <c r="N33" s="2">
+        <v>50.830033350344003</v>
+      </c>
+      <c r="O33" s="2">
         <v>7</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" s="1">
-        <v>53.5904182687166</v>
+      <c r="Q33" s="2">
+        <v>53.590418268716597</v>
       </c>
       <c r="R33" s="1">
         <v>6</v>
@@ -5077,7 +5186,7 @@
         <v>72</v>
       </c>
       <c r="T33" s="1">
-        <v>25.1986170950111</v>
+        <v>25.198617095011102</v>
       </c>
       <c r="U33" s="1">
         <v>10</v>
@@ -5086,7 +5195,7 @@
         <v>72</v>
       </c>
       <c r="W33" s="1">
-        <v>25.2892586388279</v>
+        <v>25.289258638827899</v>
       </c>
       <c r="X33" s="1">
         <v>10</v>
@@ -5095,7 +5204,7 @@
         <v>72</v>
       </c>
       <c r="Z33" s="1">
-        <v>25.3190753768416</v>
+        <v>25.319075376841599</v>
       </c>
       <c r="AA33" s="1">
         <v>9</v>
@@ -5104,7 +5213,7 @@
         <v>97</v>
       </c>
       <c r="AC33" s="1">
-        <v>24.9566206543995</v>
+        <v>24.956620654399501</v>
       </c>
       <c r="AD33" s="1">
         <v>7</v>
@@ -5113,7 +5222,7 @@
         <v>49</v>
       </c>
       <c r="AF33">
-        <v>53.8172582670559</v>
+        <v>53.817258267055898</v>
       </c>
       <c r="AG33">
         <v>10</v>
@@ -5122,7 +5231,7 @@
         <v>49</v>
       </c>
       <c r="AI33">
-        <v>53.8104391477147</v>
+        <v>53.810439147714703</v>
       </c>
       <c r="AJ33">
         <v>10</v>
@@ -5131,7 +5240,7 @@
         <v>49</v>
       </c>
       <c r="AL33">
-        <v>53.7632060599076</v>
+        <v>53.763206059907603</v>
       </c>
       <c r="AM33">
         <v>10</v>
@@ -5140,7 +5249,7 @@
         <v>49</v>
       </c>
       <c r="AO33">
-        <v>52.7287845990895</v>
+        <v>52.728784599089501</v>
       </c>
       <c r="AP33">
         <v>7</v>
@@ -5149,7 +5258,7 @@
         <v>73</v>
       </c>
       <c r="AR33">
-        <v>50.830033350344</v>
+        <v>50.830033350344003</v>
       </c>
       <c r="AS33">
         <v>7</v>
@@ -5158,7 +5267,7 @@
         <v>49</v>
       </c>
       <c r="AU33">
-        <v>53.5904182687166</v>
+        <v>53.590418268716597</v>
       </c>
       <c r="AV33">
         <v>6</v>
@@ -5167,7 +5276,7 @@
         <v>72</v>
       </c>
       <c r="AX33">
-        <v>25.1986170950111</v>
+        <v>25.198617095011102</v>
       </c>
       <c r="AY33">
         <v>10</v>
@@ -5176,7 +5285,7 @@
         <v>72</v>
       </c>
       <c r="BA33">
-        <v>25.2892586388279</v>
+        <v>25.289258638827899</v>
       </c>
       <c r="BB33">
         <v>10</v>
@@ -5185,7 +5294,7 @@
         <v>72</v>
       </c>
       <c r="BD33">
-        <v>25.3190753768416</v>
+        <v>25.319075376841599</v>
       </c>
       <c r="BE33">
         <v>9</v>
@@ -5194,27 +5303,27 @@
         <v>97</v>
       </c>
       <c r="BG33">
-        <v>24.9566206543995</v>
+        <v>24.956620654399501</v>
       </c>
     </row>
-    <row r="34" spans="1:59">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
       <c r="R34" s="1">
         <v>7</v>
       </c>
@@ -5222,7 +5331,7 @@
         <v>73</v>
       </c>
       <c r="T34" s="1">
-        <v>50.411928265311</v>
+        <v>50.411928265310998</v>
       </c>
       <c r="U34" s="1">
         <v>10</v>
@@ -5231,7 +5340,7 @@
         <v>73</v>
       </c>
       <c r="W34" s="1">
-        <v>50.4150428009022</v>
+        <v>50.415042800902199</v>
       </c>
       <c r="X34" s="1">
         <v>10</v>
@@ -5240,7 +5349,7 @@
         <v>73</v>
       </c>
       <c r="Z34" s="1">
-        <v>50.226886362801</v>
+        <v>50.226886362800997</v>
       </c>
       <c r="AA34" s="1">
         <v>9</v>
@@ -5258,7 +5367,7 @@
         <v>49</v>
       </c>
       <c r="AF34">
-        <v>53.8172582670559</v>
+        <v>53.817258267055898</v>
       </c>
       <c r="AG34">
         <v>10</v>
@@ -5267,7 +5376,7 @@
         <v>49</v>
       </c>
       <c r="AI34">
-        <v>53.8104391477147</v>
+        <v>53.810439147714703</v>
       </c>
       <c r="AJ34">
         <v>10</v>
@@ -5276,7 +5385,7 @@
         <v>49</v>
       </c>
       <c r="AL34">
-        <v>53.7632060599076</v>
+        <v>53.763206059907603</v>
       </c>
       <c r="AM34">
         <v>10</v>
@@ -5285,7 +5394,7 @@
         <v>49</v>
       </c>
       <c r="AO34">
-        <v>52.7287845990895</v>
+        <v>52.728784599089501</v>
       </c>
       <c r="AP34">
         <v>7</v>
@@ -5294,7 +5403,7 @@
         <v>73</v>
       </c>
       <c r="AR34">
-        <v>50.830033350344</v>
+        <v>50.830033350344003</v>
       </c>
       <c r="AS34">
         <v>7</v>
@@ -5303,7 +5412,7 @@
         <v>49</v>
       </c>
       <c r="AU34">
-        <v>53.5904182687166</v>
+        <v>53.590418268716597</v>
       </c>
       <c r="AV34">
         <v>7</v>
@@ -5312,7 +5421,7 @@
         <v>73</v>
       </c>
       <c r="AX34">
-        <v>50.411928265311</v>
+        <v>50.411928265310998</v>
       </c>
       <c r="AY34">
         <v>10</v>
@@ -5321,7 +5430,7 @@
         <v>73</v>
       </c>
       <c r="BA34">
-        <v>50.4150428009022</v>
+        <v>50.415042800902199</v>
       </c>
       <c r="BB34">
         <v>10</v>
@@ -5330,7 +5439,7 @@
         <v>73</v>
       </c>
       <c r="BD34">
-        <v>50.226886362801</v>
+        <v>50.226886362800997</v>
       </c>
       <c r="BE34">
         <v>9</v>
@@ -5342,12 +5451,12 @@
         <v>52.0338541300762</v>
       </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>32.0605406308148</v>
+        <v>32.060540630814799</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -5356,7 +5465,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="1">
-        <v>32.012930977005</v>
+        <v>32.012930977004999</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -5374,7 +5483,7 @@
         <v>65</v>
       </c>
       <c r="K35" s="1">
-        <v>27.4739642511293</v>
+        <v>27.473964251129299</v>
       </c>
       <c r="L35" s="1">
         <v>8</v>
@@ -5383,7 +5492,7 @@
         <v>36</v>
       </c>
       <c r="N35" s="1">
-        <v>30.8699568842479</v>
+        <v>30.869956884247902</v>
       </c>
       <c r="O35" s="1">
         <v>10</v>
@@ -5419,7 +5528,7 @@
         <v>36</v>
       </c>
       <c r="Z35" s="1">
-        <v>32.8674562861648</v>
+        <v>32.867456286164803</v>
       </c>
       <c r="AA35" s="1">
         <v>10</v>
@@ -5437,7 +5546,7 @@
         <v>36</v>
       </c>
       <c r="AF35">
-        <v>32.0605406308148</v>
+        <v>32.060540630814799</v>
       </c>
       <c r="AG35">
         <v>10</v>
@@ -5446,7 +5555,7 @@
         <v>36</v>
       </c>
       <c r="AI35">
-        <v>32.012930977005</v>
+        <v>32.012930977004999</v>
       </c>
       <c r="AJ35">
         <v>10</v>
@@ -5464,7 +5573,7 @@
         <v>65</v>
       </c>
       <c r="AO35">
-        <v>27.4739642511293</v>
+        <v>27.473964251129299</v>
       </c>
       <c r="AP35">
         <v>8</v>
@@ -5473,7 +5582,7 @@
         <v>36</v>
       </c>
       <c r="AR35">
-        <v>30.8699568842479</v>
+        <v>30.869956884247902</v>
       </c>
       <c r="AS35">
         <v>10</v>
@@ -5509,7 +5618,7 @@
         <v>36</v>
       </c>
       <c r="BD35">
-        <v>32.8674562861648</v>
+        <v>32.867456286164803</v>
       </c>
       <c r="BE35">
         <v>10</v>
@@ -5521,66 +5630,66 @@
         <v>31.9410596989322</v>
       </c>
     </row>
-    <row r="36" spans="1:59">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="1">
-        <v>39.7204054721871</v>
-      </c>
-      <c r="C36" s="1">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B36" s="2">
+        <v>39.720405472187103</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>39.6667938034918</v>
       </c>
-      <c r="F36" s="1">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="1">
-        <v>39.7253171593671</v>
-      </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="H36" s="2">
+        <v>39.725317159367101</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="1">
-        <v>39.6828717863361</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="K36" s="2">
+        <v>39.682871786336101</v>
+      </c>
+      <c r="L36" s="2">
         <v>8</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="1">
-        <v>39.1582100786567</v>
-      </c>
-      <c r="O36" s="1">
-        <v>9</v>
-      </c>
-      <c r="P36" s="1" t="s">
+      <c r="N36" s="2">
+        <v>39.158210078656701</v>
+      </c>
+      <c r="O36" s="2">
+        <v>9</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q36" s="1">
-        <v>39.6381796961828</v>
-      </c>
-      <c r="R36" s="1">
+      <c r="Q36" s="2">
+        <v>39.638179696182803</v>
+      </c>
+      <c r="R36" s="2">
         <v>6</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T36" s="1">
-        <v>49.4793993724664</v>
+      <c r="T36" s="2">
+        <v>49.479399372466403</v>
       </c>
       <c r="U36" s="1">
         <v>4</v>
@@ -5589,7 +5698,7 @@
         <v>85</v>
       </c>
       <c r="W36" s="1">
-        <v>30.1672037411781</v>
+        <v>30.167203741178099</v>
       </c>
       <c r="X36" s="1">
         <v>9</v>
@@ -5598,7 +5707,7 @@
         <v>85</v>
       </c>
       <c r="Z36" s="1">
-        <v>30.1163398054096</v>
+        <v>30.116339805409599</v>
       </c>
       <c r="AA36" s="1">
         <v>9</v>
@@ -5607,7 +5716,7 @@
         <v>85</v>
       </c>
       <c r="AC36" s="1">
-        <v>30.5029064981503</v>
+        <v>30.502906498150299</v>
       </c>
       <c r="AD36" s="1">
         <v>27</v>
@@ -5616,7 +5725,7 @@
         <v>31</v>
       </c>
       <c r="AF36">
-        <v>39.7204054721871</v>
+        <v>39.720405472187103</v>
       </c>
       <c r="AG36">
         <v>10</v>
@@ -5634,7 +5743,7 @@
         <v>31</v>
       </c>
       <c r="AL36">
-        <v>39.7253171593671</v>
+        <v>39.725317159367101</v>
       </c>
       <c r="AM36">
         <v>10</v>
@@ -5643,7 +5752,7 @@
         <v>31</v>
       </c>
       <c r="AO36">
-        <v>39.6828717863361</v>
+        <v>39.682871786336101</v>
       </c>
       <c r="AP36">
         <v>8</v>
@@ -5652,7 +5761,7 @@
         <v>31</v>
       </c>
       <c r="AR36">
-        <v>39.1582100786567</v>
+        <v>39.158210078656701</v>
       </c>
       <c r="AS36">
         <v>9</v>
@@ -5661,7 +5770,7 @@
         <v>31</v>
       </c>
       <c r="AU36">
-        <v>39.6381796961828</v>
+        <v>39.638179696182803</v>
       </c>
       <c r="AV36">
         <v>6</v>
@@ -5670,7 +5779,7 @@
         <v>81</v>
       </c>
       <c r="AX36">
-        <v>49.4793993724664</v>
+        <v>49.479399372466403</v>
       </c>
       <c r="AY36">
         <v>4</v>
@@ -5679,7 +5788,7 @@
         <v>85</v>
       </c>
       <c r="BA36">
-        <v>30.1672037411781</v>
+        <v>30.167203741178099</v>
       </c>
       <c r="BB36">
         <v>9</v>
@@ -5688,7 +5797,7 @@
         <v>85</v>
       </c>
       <c r="BD36">
-        <v>30.1163398054096</v>
+        <v>30.116339805409599</v>
       </c>
       <c r="BE36">
         <v>9</v>
@@ -5697,30 +5806,30 @@
         <v>85</v>
       </c>
       <c r="BG36">
-        <v>30.5029064981503</v>
+        <v>30.502906498150299</v>
       </c>
     </row>
-    <row r="37" spans="1:59">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="1">
         <v>5</v>
       </c>
@@ -5728,7 +5837,7 @@
         <v>31</v>
       </c>
       <c r="W37" s="1">
-        <v>39.3822839659728</v>
+        <v>39.382283965972803</v>
       </c>
       <c r="X37" s="1">
         <v>6</v>
@@ -5737,7 +5846,7 @@
         <v>88</v>
       </c>
       <c r="Z37" s="1">
-        <v>35.2803855176204</v>
+        <v>35.280385517620402</v>
       </c>
       <c r="AA37" s="1">
         <v>9</v>
@@ -5746,7 +5855,7 @@
         <v>98</v>
       </c>
       <c r="AC37" s="1">
-        <v>35.176414992314</v>
+        <v>35.176414992314001</v>
       </c>
       <c r="AD37" s="1">
         <v>26</v>
@@ -5755,7 +5864,7 @@
         <v>31</v>
       </c>
       <c r="AF37">
-        <v>39.7204054721871</v>
+        <v>39.720405472187103</v>
       </c>
       <c r="AG37">
         <v>10</v>
@@ -5773,7 +5882,7 @@
         <v>31</v>
       </c>
       <c r="AL37">
-        <v>39.7253171593671</v>
+        <v>39.725317159367101</v>
       </c>
       <c r="AM37">
         <v>10</v>
@@ -5782,7 +5891,7 @@
         <v>31</v>
       </c>
       <c r="AO37">
-        <v>39.6828717863361</v>
+        <v>39.682871786336101</v>
       </c>
       <c r="AP37">
         <v>8</v>
@@ -5791,7 +5900,7 @@
         <v>31</v>
       </c>
       <c r="AR37">
-        <v>39.1582100786567</v>
+        <v>39.158210078656701</v>
       </c>
       <c r="AS37">
         <v>9</v>
@@ -5800,7 +5909,7 @@
         <v>31</v>
       </c>
       <c r="AU37">
-        <v>39.6381796961828</v>
+        <v>39.638179696182803</v>
       </c>
       <c r="AV37">
         <v>6</v>
@@ -5809,7 +5918,7 @@
         <v>81</v>
       </c>
       <c r="AX37">
-        <v>49.4793993724664</v>
+        <v>49.479399372466403</v>
       </c>
       <c r="AY37">
         <v>5</v>
@@ -5818,7 +5927,7 @@
         <v>31</v>
       </c>
       <c r="BA37">
-        <v>39.3822839659728</v>
+        <v>39.382283965972803</v>
       </c>
       <c r="BB37">
         <v>6</v>
@@ -5827,7 +5936,7 @@
         <v>88</v>
       </c>
       <c r="BD37">
-        <v>35.2803855176204</v>
+        <v>35.280385517620402</v>
       </c>
       <c r="BE37">
         <v>9</v>
@@ -5836,78 +5945,78 @@
         <v>98</v>
       </c>
       <c r="BG37">
-        <v>35.176414992314</v>
+        <v>35.176414992314001</v>
       </c>
     </row>
-    <row r="38" spans="1:59">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="1">
-        <v>57.668754895148</v>
-      </c>
-      <c r="C38" s="1">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="2">
+        <v>57.668754895147998</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="1">
-        <v>57.4308815499293</v>
-      </c>
-      <c r="F38" s="1">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="E38" s="2">
+        <v>57.430881549929303</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="1">
-        <v>56.9569103161193</v>
-      </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="H38" s="2">
+        <v>56.956910316119298</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="1">
-        <v>56.6022088505136</v>
-      </c>
-      <c r="L38" s="1">
-        <v>9</v>
-      </c>
-      <c r="M38" s="1" t="s">
+      <c r="K38" s="2">
+        <v>56.602208850513598</v>
+      </c>
+      <c r="L38" s="2">
+        <v>9</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="1">
-        <v>56.8672613071891</v>
-      </c>
-      <c r="O38" s="1">
-        <v>9</v>
-      </c>
-      <c r="P38" s="1" t="s">
+      <c r="N38" s="2">
+        <v>56.867261307189104</v>
+      </c>
+      <c r="O38" s="2">
+        <v>9</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="1">
-        <v>56.6165389449225</v>
-      </c>
-      <c r="R38" s="1">
-        <v>9</v>
-      </c>
-      <c r="S38" s="1" t="s">
+      <c r="Q38" s="2">
+        <v>56.616538944922503</v>
+      </c>
+      <c r="R38" s="2">
+        <v>9</v>
+      </c>
+      <c r="S38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="2">
         <v>57.6618726688381</v>
       </c>
       <c r="U38" s="1">
         <v>3</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" s="7" t="s">
         <v>86</v>
       </c>
       <c r="W38" s="1">
-        <v>35.7901953262822</v>
+        <v>35.790195326282202</v>
       </c>
       <c r="X38" s="1">
         <v>10</v>
@@ -5916,7 +6025,7 @@
         <v>89</v>
       </c>
       <c r="Z38" s="1">
-        <v>35.7116748014892</v>
+        <v>35.711674801489202</v>
       </c>
       <c r="AA38" s="1">
         <v>10</v>
@@ -5925,7 +6034,7 @@
         <v>86</v>
       </c>
       <c r="AC38" s="1">
-        <v>34.9664907795457</v>
+        <v>34.966490779545701</v>
       </c>
       <c r="AD38" s="1">
         <v>29</v>
@@ -5934,7 +6043,7 @@
         <v>33</v>
       </c>
       <c r="AF38">
-        <v>57.668754895148</v>
+        <v>57.668754895147998</v>
       </c>
       <c r="AG38">
         <v>9</v>
@@ -5943,7 +6052,7 @@
         <v>33</v>
       </c>
       <c r="AI38">
-        <v>57.4308815499293</v>
+        <v>57.430881549929303</v>
       </c>
       <c r="AJ38">
         <v>10</v>
@@ -5952,7 +6061,7 @@
         <v>57</v>
       </c>
       <c r="AL38">
-        <v>56.9569103161193</v>
+        <v>56.956910316119298</v>
       </c>
       <c r="AM38">
         <v>10</v>
@@ -5961,7 +6070,7 @@
         <v>57</v>
       </c>
       <c r="AO38">
-        <v>56.6022088505136</v>
+        <v>56.602208850513598</v>
       </c>
       <c r="AP38">
         <v>9</v>
@@ -5970,7 +6079,7 @@
         <v>57</v>
       </c>
       <c r="AR38">
-        <v>56.8672613071891</v>
+        <v>56.867261307189104</v>
       </c>
       <c r="AS38">
         <v>9</v>
@@ -5979,7 +6088,7 @@
         <v>57</v>
       </c>
       <c r="AU38">
-        <v>56.6165389449225</v>
+        <v>56.616538944922503</v>
       </c>
       <c r="AV38">
         <v>9</v>
@@ -5997,7 +6106,7 @@
         <v>86</v>
       </c>
       <c r="BA38">
-        <v>35.7901953262822</v>
+        <v>35.790195326282202</v>
       </c>
       <c r="BB38">
         <v>10</v>
@@ -6006,7 +6115,7 @@
         <v>89</v>
       </c>
       <c r="BD38">
-        <v>35.7116748014892</v>
+        <v>35.711674801489202</v>
       </c>
       <c r="BE38">
         <v>10</v>
@@ -6015,30 +6124,30 @@
         <v>86</v>
       </c>
       <c r="BG38">
-        <v>34.9664907795457</v>
+        <v>34.966490779545701</v>
       </c>
     </row>
-    <row r="39" spans="1:59">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="1">
         <v>9</v>
       </c>
@@ -6046,7 +6155,7 @@
         <v>57</v>
       </c>
       <c r="W39" s="1">
-        <v>56.6043343771349</v>
+        <v>56.604334377134897</v>
       </c>
       <c r="X39" s="1">
         <v>9</v>
@@ -6055,7 +6164,7 @@
         <v>57</v>
       </c>
       <c r="Z39" s="1">
-        <v>55.1398762118873</v>
+        <v>55.139876211887298</v>
       </c>
       <c r="AA39" s="1">
         <v>9</v>
@@ -6064,7 +6173,7 @@
         <v>57</v>
       </c>
       <c r="AC39" s="1">
-        <v>54.8834228373882</v>
+        <v>54.883422837388203</v>
       </c>
       <c r="AD39" s="1">
         <v>28</v>
@@ -6073,7 +6182,7 @@
         <v>33</v>
       </c>
       <c r="AF39">
-        <v>57.668754895148</v>
+        <v>57.668754895147998</v>
       </c>
       <c r="AG39">
         <v>9</v>
@@ -6082,7 +6191,7 @@
         <v>33</v>
       </c>
       <c r="AI39">
-        <v>57.4308815499293</v>
+        <v>57.430881549929303</v>
       </c>
       <c r="AJ39">
         <v>10</v>
@@ -6091,7 +6200,7 @@
         <v>57</v>
       </c>
       <c r="AL39">
-        <v>56.9569103161193</v>
+        <v>56.956910316119298</v>
       </c>
       <c r="AM39">
         <v>10</v>
@@ -6100,7 +6209,7 @@
         <v>57</v>
       </c>
       <c r="AO39">
-        <v>56.6022088505136</v>
+        <v>56.602208850513598</v>
       </c>
       <c r="AP39">
         <v>9</v>
@@ -6109,7 +6218,7 @@
         <v>57</v>
       </c>
       <c r="AR39">
-        <v>56.8672613071891</v>
+        <v>56.867261307189104</v>
       </c>
       <c r="AS39">
         <v>9</v>
@@ -6118,7 +6227,7 @@
         <v>57</v>
       </c>
       <c r="AU39">
-        <v>56.6165389449225</v>
+        <v>56.616538944922503</v>
       </c>
       <c r="AV39">
         <v>9</v>
@@ -6136,7 +6245,7 @@
         <v>57</v>
       </c>
       <c r="BA39">
-        <v>56.6043343771349</v>
+        <v>56.604334377134897</v>
       </c>
       <c r="BB39">
         <v>9</v>
@@ -6145,7 +6254,7 @@
         <v>57</v>
       </c>
       <c r="BD39">
-        <v>55.1398762118873</v>
+        <v>55.139876211887298</v>
       </c>
       <c r="BE39">
         <v>9</v>
@@ -6154,15 +6263,15 @@
         <v>57</v>
       </c>
       <c r="BG39">
-        <v>54.8834228373882</v>
+        <v>54.883422837388203</v>
       </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="1">
-        <v>50.1191763980738</v>
+        <v>50.119176398073797</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6171,7 +6280,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="1">
-        <v>49.9909751155154</v>
+        <v>49.990975115515397</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -6189,7 +6298,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="1">
-        <v>50.8008324390454</v>
+        <v>50.800832439045401</v>
       </c>
       <c r="L40" s="1">
         <v>8</v>
@@ -6198,7 +6307,7 @@
         <v>35</v>
       </c>
       <c r="N40" s="1">
-        <v>45.5668452922926</v>
+        <v>45.566845292292598</v>
       </c>
       <c r="O40" s="1">
         <v>9</v>
@@ -6207,7 +6316,7 @@
         <v>35</v>
       </c>
       <c r="Q40" s="1">
-        <v>45.3374461852511</v>
+        <v>45.337446185251103</v>
       </c>
       <c r="R40" s="1">
         <v>8</v>
@@ -6216,7 +6325,7 @@
         <v>35</v>
       </c>
       <c r="T40" s="1">
-        <v>47.8838272882408</v>
+        <v>47.883827288240802</v>
       </c>
       <c r="U40" s="1">
         <v>9</v>
@@ -6225,7 +6334,7 @@
         <v>35</v>
       </c>
       <c r="W40" s="1">
-        <v>45.0548301888628</v>
+        <v>45.054830188862802</v>
       </c>
       <c r="X40" s="1">
         <v>8</v>
@@ -6243,7 +6352,7 @@
         <v>35</v>
       </c>
       <c r="AC40" s="1">
-        <v>48.6643612225442</v>
+        <v>48.664361222544201</v>
       </c>
       <c r="AD40" s="1">
         <v>36</v>
@@ -6252,7 +6361,7 @@
         <v>35</v>
       </c>
       <c r="AF40">
-        <v>50.1191763980738</v>
+        <v>50.119176398073797</v>
       </c>
       <c r="AG40">
         <v>10</v>
@@ -6261,7 +6370,7 @@
         <v>35</v>
       </c>
       <c r="AI40">
-        <v>49.9909751155154</v>
+        <v>49.990975115515397</v>
       </c>
       <c r="AJ40">
         <v>10</v>
@@ -6279,7 +6388,7 @@
         <v>35</v>
       </c>
       <c r="AO40">
-        <v>50.8008324390454</v>
+        <v>50.800832439045401</v>
       </c>
       <c r="AP40">
         <v>8</v>
@@ -6288,7 +6397,7 @@
         <v>35</v>
       </c>
       <c r="AR40">
-        <v>45.5668452922926</v>
+        <v>45.566845292292598</v>
       </c>
       <c r="AS40">
         <v>9</v>
@@ -6297,7 +6406,7 @@
         <v>35</v>
       </c>
       <c r="AU40">
-        <v>45.3374461852511</v>
+        <v>45.337446185251103</v>
       </c>
       <c r="AV40">
         <v>8</v>
@@ -6306,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="AX40">
-        <v>47.8838272882408</v>
+        <v>47.883827288240802</v>
       </c>
       <c r="AY40">
         <v>9</v>
@@ -6315,7 +6424,7 @@
         <v>35</v>
       </c>
       <c r="BA40">
-        <v>45.0548301888628</v>
+        <v>45.054830188862802</v>
       </c>
       <c r="BB40">
         <v>8</v>
@@ -6333,59 +6442,59 @@
         <v>35</v>
       </c>
       <c r="BG40">
-        <v>48.6643612225442</v>
+        <v>48.664361222544201</v>
       </c>
     </row>
-    <row r="41" spans="1:59">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1">
-        <v>61.7108447782362</v>
-      </c>
-      <c r="C41" s="1">
-        <v>9</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B41" s="2">
+        <v>61.710844778236201</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="1">
-        <v>61.8822670696685</v>
-      </c>
-      <c r="F41" s="1">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="2">
+        <v>61.882267069668501</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="1">
-        <v>62.1392546994399</v>
-      </c>
-      <c r="I41" s="1">
-        <v>10</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="H41" s="2">
+        <v>62.139254699439903</v>
+      </c>
+      <c r="I41" s="3">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="1">
-        <v>62.4171893861583</v>
-      </c>
-      <c r="L41" s="1">
-        <v>10</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="K41" s="2">
+        <v>62.417189386158299</v>
+      </c>
+      <c r="L41" s="2">
+        <v>10</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="2">
         <v>59.9305002742474</v>
       </c>
-      <c r="O41" s="1">
-        <v>10</v>
-      </c>
-      <c r="P41" s="1" t="s">
+      <c r="O41" s="2">
+        <v>10</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="2">
         <v>60.5642125661699</v>
       </c>
       <c r="R41" s="1">
@@ -6395,7 +6504,7 @@
         <v>82</v>
       </c>
       <c r="T41" s="1">
-        <v>39.1556062051657</v>
+        <v>39.155606205165697</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -6413,7 +6522,7 @@
         <v>38</v>
       </c>
       <c r="AF41">
-        <v>61.7108447782362</v>
+        <v>61.710844778236201</v>
       </c>
       <c r="AG41">
         <v>9</v>
@@ -6422,7 +6531,7 @@
         <v>38</v>
       </c>
       <c r="AI41">
-        <v>61.8822670696685</v>
+        <v>61.882267069668501</v>
       </c>
       <c r="AJ41">
         <v>10</v>
@@ -6431,7 +6540,7 @@
         <v>38</v>
       </c>
       <c r="AL41">
-        <v>62.1392546994399</v>
+        <v>62.139254699439903</v>
       </c>
       <c r="AM41">
         <v>10</v>
@@ -6440,7 +6549,7 @@
         <v>38</v>
       </c>
       <c r="AO41">
-        <v>62.4171893861583</v>
+        <v>62.417189386158299</v>
       </c>
       <c r="AP41">
         <v>10</v>
@@ -6467,44 +6576,44 @@
         <v>82</v>
       </c>
       <c r="AX41">
-        <v>39.1556062051657</v>
+        <v>39.155606205165697</v>
       </c>
     </row>
-    <row r="42" spans="1:59">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2">
         <v>8</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T42" s="1">
-        <v>56.2364699543422</v>
-      </c>
-      <c r="U42" s="1">
+      <c r="T42" s="2">
+        <v>56.236469954342198</v>
+      </c>
+      <c r="U42" s="2">
         <v>8</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W42" s="1">
-        <v>59.708090984285</v>
+      <c r="W42" s="2">
+        <v>59.708090984285001</v>
       </c>
       <c r="X42" s="1">
         <v>2</v>
@@ -6513,7 +6622,7 @@
         <v>82</v>
       </c>
       <c r="Z42" s="1">
-        <v>38.3081854935441</v>
+        <v>38.308185493544102</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -6525,7 +6634,7 @@
         <v>38</v>
       </c>
       <c r="AF42">
-        <v>61.7108447782362</v>
+        <v>61.710844778236201</v>
       </c>
       <c r="AG42">
         <v>9</v>
@@ -6534,7 +6643,7 @@
         <v>38</v>
       </c>
       <c r="AI42">
-        <v>61.8822670696685</v>
+        <v>61.882267069668501</v>
       </c>
       <c r="AJ42">
         <v>10</v>
@@ -6543,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="AL42">
-        <v>62.1392546994399</v>
+        <v>62.139254699439903</v>
       </c>
       <c r="AM42">
         <v>10</v>
@@ -6552,7 +6661,7 @@
         <v>38</v>
       </c>
       <c r="AO42">
-        <v>62.4171893861583</v>
+        <v>62.417189386158299</v>
       </c>
       <c r="AP42">
         <v>10</v>
@@ -6579,7 +6688,7 @@
         <v>83</v>
       </c>
       <c r="AX42">
-        <v>56.2364699543422</v>
+        <v>56.236469954342198</v>
       </c>
       <c r="AY42">
         <v>8</v>
@@ -6588,7 +6697,7 @@
         <v>38</v>
       </c>
       <c r="BA42">
-        <v>59.708090984285</v>
+        <v>59.708090984285001</v>
       </c>
       <c r="BB42">
         <v>2</v>
@@ -6597,33 +6706,33 @@
         <v>82</v>
       </c>
       <c r="BD42">
-        <v>38.3081854935441</v>
+        <v>38.308185493544102</v>
       </c>
     </row>
-    <row r="43" spans="1:59">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
       <c r="X43" s="1">
         <v>5</v>
       </c>
@@ -6631,7 +6740,7 @@
         <v>90</v>
       </c>
       <c r="Z43" s="1">
-        <v>57.4205203480108</v>
+        <v>57.420520348010797</v>
       </c>
       <c r="AA43" s="1">
         <v>9</v>
@@ -6649,7 +6758,7 @@
         <v>38</v>
       </c>
       <c r="AF43">
-        <v>61.7108447782362</v>
+        <v>61.710844778236201</v>
       </c>
       <c r="AG43">
         <v>9</v>
@@ -6658,7 +6767,7 @@
         <v>38</v>
       </c>
       <c r="AI43">
-        <v>61.8822670696685</v>
+        <v>61.882267069668501</v>
       </c>
       <c r="AJ43">
         <v>10</v>
@@ -6667,7 +6776,7 @@
         <v>38</v>
       </c>
       <c r="AL43">
-        <v>62.1392546994399</v>
+        <v>62.139254699439903</v>
       </c>
       <c r="AM43">
         <v>10</v>
@@ -6676,7 +6785,7 @@
         <v>38</v>
       </c>
       <c r="AO43">
-        <v>62.4171893861583</v>
+        <v>62.417189386158299</v>
       </c>
       <c r="AP43">
         <v>10</v>
@@ -6703,7 +6812,7 @@
         <v>83</v>
       </c>
       <c r="AX43">
-        <v>56.2364699543422</v>
+        <v>56.236469954342198</v>
       </c>
       <c r="AY43">
         <v>8</v>
@@ -6712,7 +6821,7 @@
         <v>38</v>
       </c>
       <c r="BA43">
-        <v>59.708090984285</v>
+        <v>59.708090984285001</v>
       </c>
       <c r="BB43">
         <v>5</v>
@@ -6721,7 +6830,7 @@
         <v>90</v>
       </c>
       <c r="BD43">
-        <v>57.4205203480108</v>
+        <v>57.420520348010797</v>
       </c>
       <c r="BE43">
         <v>9</v>
@@ -6733,30 +6842,30 @@
         <v>50.8417767317124</v>
       </c>
     </row>
-    <row r="44" spans="1:59">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
       <c r="X44" s="1">
         <v>6</v>
       </c>
@@ -6764,7 +6873,7 @@
         <v>91</v>
       </c>
       <c r="Z44" s="1">
-        <v>44.5679143759084</v>
+        <v>44.567914375908401</v>
       </c>
       <c r="AA44" s="1">
         <v>6</v>
@@ -6773,7 +6882,7 @@
         <v>100</v>
       </c>
       <c r="AC44" s="1">
-        <v>50.7251788984131</v>
+        <v>50.725178898413098</v>
       </c>
       <c r="AD44" s="1">
         <v>34</v>
@@ -6782,7 +6891,7 @@
         <v>38</v>
       </c>
       <c r="AF44">
-        <v>61.7108447782362</v>
+        <v>61.710844778236201</v>
       </c>
       <c r="AG44">
         <v>9</v>
@@ -6791,7 +6900,7 @@
         <v>38</v>
       </c>
       <c r="AI44">
-        <v>61.8822670696685</v>
+        <v>61.882267069668501</v>
       </c>
       <c r="AJ44">
         <v>10</v>
@@ -6800,7 +6909,7 @@
         <v>38</v>
       </c>
       <c r="AL44">
-        <v>62.1392546994399</v>
+        <v>62.139254699439903</v>
       </c>
       <c r="AM44">
         <v>10</v>
@@ -6809,7 +6918,7 @@
         <v>38</v>
       </c>
       <c r="AO44">
-        <v>62.4171893861583</v>
+        <v>62.417189386158299</v>
       </c>
       <c r="AP44">
         <v>10</v>
@@ -6836,7 +6945,7 @@
         <v>83</v>
       </c>
       <c r="AX44">
-        <v>56.2364699543422</v>
+        <v>56.236469954342198</v>
       </c>
       <c r="AY44">
         <v>8</v>
@@ -6845,7 +6954,7 @@
         <v>38</v>
       </c>
       <c r="BA44">
-        <v>59.708090984285</v>
+        <v>59.708090984285001</v>
       </c>
       <c r="BB44">
         <v>6</v>
@@ -6854,7 +6963,7 @@
         <v>91</v>
       </c>
       <c r="BD44">
-        <v>44.5679143759084</v>
+        <v>44.567914375908401</v>
       </c>
       <c r="BE44">
         <v>6</v>
@@ -6863,42 +6972,42 @@
         <v>100</v>
       </c>
       <c r="BG44">
-        <v>50.7251788984131</v>
+        <v>50.725178898413098</v>
       </c>
     </row>
-    <row r="45" spans="1:59">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="1">
-        <v>42.6826374949725</v>
-      </c>
-      <c r="C45" s="1">
-        <v>9</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45" s="2">
+        <v>42.682637494972496</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="1">
-        <v>42.0167492699816</v>
-      </c>
-      <c r="F45" s="1">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="2">
+        <v>42.016749269981602</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="1">
-        <v>42.9775439130103</v>
-      </c>
-      <c r="I45" s="1">
-        <v>9</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="H45" s="2">
+        <v>42.977543913010301</v>
+      </c>
+      <c r="I45" s="3">
+        <v>9</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="1">
-        <v>40.8530231809786</v>
+      <c r="K45" s="2">
+        <v>40.853023180978603</v>
       </c>
       <c r="L45" s="1">
         <v>3</v>
@@ -6907,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="N45" s="1">
-        <v>48.5202487517458</v>
+        <v>48.520248751745797</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -6931,7 +7040,7 @@
         <v>32</v>
       </c>
       <c r="AF45">
-        <v>42.6826374949725</v>
+        <v>42.682637494972496</v>
       </c>
       <c r="AG45">
         <v>9</v>
@@ -6940,7 +7049,7 @@
         <v>32</v>
       </c>
       <c r="AI45">
-        <v>42.0167492699816</v>
+        <v>42.016749269981602</v>
       </c>
       <c r="AJ45">
         <v>9</v>
@@ -6949,7 +7058,7 @@
         <v>32</v>
       </c>
       <c r="AL45">
-        <v>42.9775439130103</v>
+        <v>42.977543913010301</v>
       </c>
       <c r="AM45">
         <v>9</v>
@@ -6958,7 +7067,7 @@
         <v>66</v>
       </c>
       <c r="AO45">
-        <v>40.8530231809786</v>
+        <v>40.853023180978603</v>
       </c>
       <c r="AP45">
         <v>3</v>
@@ -6967,43 +7076,43 @@
         <v>74</v>
       </c>
       <c r="AR45">
-        <v>48.5202487517458</v>
+        <v>48.520248751745797</v>
       </c>
     </row>
-    <row r="46" spans="1:59">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1">
-        <v>10</v>
-      </c>
-      <c r="M46" s="1" t="s">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2">
+        <v>10</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="2">
         <v>41.8502296749758</v>
       </c>
-      <c r="O46" s="1">
-        <v>9</v>
-      </c>
-      <c r="P46" s="1" t="s">
+      <c r="O46" s="2">
+        <v>9</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="1">
-        <v>41.9605856416859</v>
+      <c r="Q46" s="2">
+        <v>41.960585641685903</v>
       </c>
       <c r="R46" s="1">
         <v>3</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="7" t="s">
         <v>74</v>
       </c>
       <c r="T46" s="1">
@@ -7016,7 +7125,7 @@
         <v>74</v>
       </c>
       <c r="W46" s="1">
-        <v>48.7150896862014</v>
+        <v>48.715089686201402</v>
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -7031,7 +7140,7 @@
         <v>32</v>
       </c>
       <c r="AF46">
-        <v>42.6826374949725</v>
+        <v>42.682637494972496</v>
       </c>
       <c r="AG46">
         <v>9</v>
@@ -7040,7 +7149,7 @@
         <v>32</v>
       </c>
       <c r="AI46">
-        <v>42.0167492699816</v>
+        <v>42.016749269981602</v>
       </c>
       <c r="AJ46">
         <v>9</v>
@@ -7049,7 +7158,7 @@
         <v>32</v>
       </c>
       <c r="AL46">
-        <v>42.9775439130103</v>
+        <v>42.977543913010301</v>
       </c>
       <c r="AM46">
         <v>9</v>
@@ -7058,7 +7167,7 @@
         <v>66</v>
       </c>
       <c r="AO46">
-        <v>40.8530231809786</v>
+        <v>40.853023180978603</v>
       </c>
       <c r="AP46">
         <v>10</v>
@@ -7076,7 +7185,7 @@
         <v>32</v>
       </c>
       <c r="AU46">
-        <v>41.9605856416859</v>
+        <v>41.960585641685903</v>
       </c>
       <c r="AV46">
         <v>3</v>
@@ -7094,35 +7203,35 @@
         <v>74</v>
       </c>
       <c r="BA46">
-        <v>48.7150896862014</v>
+        <v>48.715089686201402</v>
       </c>
     </row>
-    <row r="47" spans="1:59">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
       <c r="R47" s="1">
         <v>9</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="7" t="s">
         <v>32</v>
       </c>
       <c r="T47" s="1">
-        <v>42.1839303393138</v>
+        <v>42.183930339313797</v>
       </c>
       <c r="U47" s="1">
         <v>9</v>
@@ -7131,7 +7240,7 @@
         <v>32</v>
       </c>
       <c r="W47" s="1">
-        <v>41.9871368921431</v>
+        <v>41.987136892143099</v>
       </c>
       <c r="X47" s="1">
         <v>9</v>
@@ -7140,7 +7249,7 @@
         <v>32</v>
       </c>
       <c r="Z47" s="1">
-        <v>42.1961580100126</v>
+        <v>42.196158010012603</v>
       </c>
       <c r="AA47" s="1">
         <v>7</v>
@@ -7149,7 +7258,7 @@
         <v>101</v>
       </c>
       <c r="AC47" s="1">
-        <v>41.6640650476401</v>
+        <v>41.664065047640101</v>
       </c>
       <c r="AD47" s="1">
         <v>42</v>
@@ -7158,7 +7267,7 @@
         <v>32</v>
       </c>
       <c r="AF47">
-        <v>42.6826374949725</v>
+        <v>42.682637494972496</v>
       </c>
       <c r="AG47">
         <v>9</v>
@@ -7167,7 +7276,7 @@
         <v>32</v>
       </c>
       <c r="AI47">
-        <v>42.0167492699816</v>
+        <v>42.016749269981602</v>
       </c>
       <c r="AJ47">
         <v>9</v>
@@ -7176,7 +7285,7 @@
         <v>32</v>
       </c>
       <c r="AL47">
-        <v>42.9775439130103</v>
+        <v>42.977543913010301</v>
       </c>
       <c r="AM47">
         <v>9</v>
@@ -7185,7 +7294,7 @@
         <v>66</v>
       </c>
       <c r="AO47">
-        <v>40.8530231809786</v>
+        <v>40.853023180978603</v>
       </c>
       <c r="AP47">
         <v>10</v>
@@ -7203,7 +7312,7 @@
         <v>32</v>
       </c>
       <c r="AU47">
-        <v>41.9605856416859</v>
+        <v>41.960585641685903</v>
       </c>
       <c r="AV47">
         <v>9</v>
@@ -7212,7 +7321,7 @@
         <v>32</v>
       </c>
       <c r="AX47">
-        <v>42.1839303393138</v>
+        <v>42.183930339313797</v>
       </c>
       <c r="AY47">
         <v>9</v>
@@ -7221,7 +7330,7 @@
         <v>32</v>
       </c>
       <c r="BA47">
-        <v>41.9871368921431</v>
+        <v>41.987136892143099</v>
       </c>
       <c r="BB47">
         <v>9</v>
@@ -7230,7 +7339,7 @@
         <v>32</v>
       </c>
       <c r="BD47">
-        <v>42.1961580100126</v>
+        <v>42.196158010012603</v>
       </c>
       <c r="BE47">
         <v>7</v>
@@ -7239,15 +7348,15 @@
         <v>101</v>
       </c>
       <c r="BG47">
-        <v>41.6640650476401</v>
+        <v>41.664065047640101</v>
       </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>61.045206820281</v>
+        <v>61.045206820281003</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
@@ -7256,7 +7365,7 @@
         <v>46</v>
       </c>
       <c r="E48" s="1">
-        <v>60.6273557540795</v>
+        <v>60.627355754079503</v>
       </c>
       <c r="F48" s="1">
         <v>9</v>
@@ -7265,7 +7374,7 @@
         <v>46</v>
       </c>
       <c r="H48" s="1">
-        <v>57.6407051257949</v>
+        <v>57.640705125794902</v>
       </c>
       <c r="I48" s="1">
         <v>9</v>
@@ -7274,7 +7383,7 @@
         <v>46</v>
       </c>
       <c r="K48" s="1">
-        <v>59.626129918529</v>
+        <v>59.626129918529003</v>
       </c>
       <c r="L48" s="1">
         <v>10</v>
@@ -7283,7 +7392,7 @@
         <v>46</v>
       </c>
       <c r="N48" s="1">
-        <v>59.9521026149739</v>
+        <v>59.952102614973903</v>
       </c>
       <c r="O48" s="1">
         <v>10</v>
@@ -7292,16 +7401,16 @@
         <v>46</v>
       </c>
       <c r="Q48" s="1">
-        <v>59.3012487580323</v>
+        <v>59.301248758032301</v>
       </c>
       <c r="R48" s="1">
         <v>9</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="S48" s="7" t="s">
         <v>46</v>
       </c>
       <c r="T48" s="1">
-        <v>57.3933332236584</v>
+        <v>57.393333223658402</v>
       </c>
       <c r="U48" s="1">
         <v>10</v>
@@ -7310,7 +7419,7 @@
         <v>46</v>
       </c>
       <c r="W48" s="1">
-        <v>57.2858465158529</v>
+        <v>57.285846515852903</v>
       </c>
       <c r="X48" s="1">
         <v>10</v>
@@ -7319,7 +7428,7 @@
         <v>46</v>
       </c>
       <c r="Z48" s="1">
-        <v>57.5088332208382</v>
+        <v>57.508833220838198</v>
       </c>
       <c r="AA48" s="1">
         <v>10</v>
@@ -7328,7 +7437,7 @@
         <v>46</v>
       </c>
       <c r="AC48" s="1">
-        <v>57.2852381405183</v>
+        <v>57.285238140518302</v>
       </c>
       <c r="AD48" s="1">
         <v>45</v>
@@ -7337,7 +7446,7 @@
         <v>46</v>
       </c>
       <c r="AF48">
-        <v>61.045206820281</v>
+        <v>61.045206820281003</v>
       </c>
       <c r="AG48">
         <v>10</v>
@@ -7346,7 +7455,7 @@
         <v>46</v>
       </c>
       <c r="AI48">
-        <v>60.6273557540795</v>
+        <v>60.627355754079503</v>
       </c>
       <c r="AJ48">
         <v>9</v>
@@ -7355,7 +7464,7 @@
         <v>46</v>
       </c>
       <c r="AL48">
-        <v>57.6407051257949</v>
+        <v>57.640705125794902</v>
       </c>
       <c r="AM48">
         <v>9</v>
@@ -7364,7 +7473,7 @@
         <v>46</v>
       </c>
       <c r="AO48">
-        <v>59.626129918529</v>
+        <v>59.626129918529003</v>
       </c>
       <c r="AP48">
         <v>10</v>
@@ -7373,7 +7482,7 @@
         <v>46</v>
       </c>
       <c r="AR48">
-        <v>59.9521026149739</v>
+        <v>59.952102614973903</v>
       </c>
       <c r="AS48">
         <v>10</v>
@@ -7382,7 +7491,7 @@
         <v>46</v>
       </c>
       <c r="AU48">
-        <v>59.3012487580323</v>
+        <v>59.301248758032301</v>
       </c>
       <c r="AV48">
         <v>9</v>
@@ -7391,7 +7500,7 @@
         <v>46</v>
       </c>
       <c r="AX48">
-        <v>57.3933332236584</v>
+        <v>57.393333223658402</v>
       </c>
       <c r="AY48">
         <v>10</v>
@@ -7400,7 +7509,7 @@
         <v>46</v>
       </c>
       <c r="BA48">
-        <v>57.2858465158529</v>
+        <v>57.285846515852903</v>
       </c>
       <c r="BB48">
         <v>10</v>
@@ -7409,7 +7518,7 @@
         <v>46</v>
       </c>
       <c r="BD48">
-        <v>57.5088332208382</v>
+        <v>57.508833220838198</v>
       </c>
       <c r="BE48">
         <v>10</v>
@@ -7418,46 +7527,211 @@
         <v>46</v>
       </c>
       <c r="BG48">
-        <v>57.2852381405183</v>
+        <v>57.285238140518302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="V42:V44"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W42:W44"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="S42:S44"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O41:O44"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E32:E34"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C41:C44"/>
@@ -7475,209 +7749,44 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D41:D44"/>
     <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="O41:O44"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="S42:S44"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T42:T44"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="V42:V44"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="W42:W44"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="AA2:AA47">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7689,18 +7798,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C47">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7713,7 +7810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I47">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7725,7 +7822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L47">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7737,7 +7834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O47">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7749,7 +7846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R47">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7761,7 +7858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U47">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7773,7 +7870,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X47">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F47">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
